--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga8_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga8_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,124 +453,124 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>976</v>
+        <v>23882</v>
       </c>
       <c r="B2">
-        <v>244</v>
+        <v>238.82</v>
       </c>
       <c r="C2">
-        <v>242.5</v>
+        <v>239</v>
       </c>
       <c r="D2">
         <v>239</v>
       </c>
       <c r="E2">
-        <v>39.33333333333334</v>
+        <v>5.825858585858606</v>
       </c>
       <c r="F2">
-        <v>6.27162924074226</v>
+        <v>2.413681541931041</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J2">
         <v>239</v>
       </c>
       <c r="K2">
-        <v>242.5</v>
+        <v>239</v>
       </c>
       <c r="L2">
-        <v>247.5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>988</v>
+        <v>23836</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>238.36</v>
       </c>
       <c r="C3">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D3">
         <v>239</v>
       </c>
       <c r="E3">
-        <v>85.33333333333333</v>
+        <v>22.91959595959595</v>
       </c>
       <c r="F3">
-        <v>9.237604307034012</v>
+        <v>4.787441483673294</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="I3">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J3">
         <v>239</v>
       </c>
       <c r="K3">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L3">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>987</v>
+        <v>23225</v>
       </c>
       <c r="B4">
-        <v>246.75</v>
+        <v>232.25</v>
       </c>
       <c r="C4">
-        <v>246.5</v>
+        <v>239</v>
       </c>
       <c r="D4">
         <v>239</v>
       </c>
       <c r="E4">
-        <v>80.25</v>
+        <v>1020.25</v>
       </c>
       <c r="F4">
-        <v>8.958236433584458</v>
+        <v>31.94135250736888</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="H4">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J4">
         <v>239</v>
       </c>
       <c r="K4">
-        <v>246.5</v>
+        <v>239</v>
       </c>
       <c r="L4">
-        <v>254.25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>956</v>
+        <v>23195</v>
       </c>
       <c r="B5">
-        <v>239</v>
+        <v>231.95</v>
       </c>
       <c r="C5">
         <v>239</v>
@@ -579,27 +579,3675 @@
         <v>239</v>
       </c>
       <c r="E5">
+        <v>802.5126262626259</v>
+      </c>
+      <c r="F5">
+        <v>28.32865380251285</v>
+      </c>
+      <c r="G5">
+        <v>166</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>241</v>
+      </c>
+      <c r="J5">
+        <v>239</v>
+      </c>
+      <c r="K5">
+        <v>239</v>
+      </c>
+      <c r="L5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>23520</v>
+      </c>
+      <c r="B6">
+        <v>235.2</v>
+      </c>
+      <c r="C6">
+        <v>239</v>
+      </c>
+      <c r="D6">
+        <v>239</v>
+      </c>
+      <c r="E6">
+        <v>309.2525252525246</v>
+      </c>
+      <c r="F6">
+        <v>17.58557719418173</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <v>131</v>
+      </c>
+      <c r="I6">
+        <v>254</v>
+      </c>
+      <c r="J6">
+        <v>239</v>
+      </c>
+      <c r="K6">
+        <v>239</v>
+      </c>
+      <c r="L6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>23510</v>
+      </c>
+      <c r="B7">
+        <v>235.1</v>
+      </c>
+      <c r="C7">
+        <v>239</v>
+      </c>
+      <c r="D7">
+        <v>239</v>
+      </c>
+      <c r="E7">
+        <v>383.4242424242422</v>
+      </c>
+      <c r="F7">
+        <v>19.581221678543</v>
+      </c>
+      <c r="G7">
+        <v>141</v>
+      </c>
+      <c r="H7">
+        <v>106</v>
+      </c>
+      <c r="I7">
+        <v>247</v>
+      </c>
+      <c r="J7">
+        <v>239</v>
+      </c>
+      <c r="K7">
+        <v>239</v>
+      </c>
+      <c r="L7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>23469</v>
+      </c>
+      <c r="B8">
+        <v>234.69</v>
+      </c>
+      <c r="C8">
+        <v>239</v>
+      </c>
+      <c r="D8">
+        <v>239</v>
+      </c>
+      <c r="E8">
+        <v>540.8827272727267</v>
+      </c>
+      <c r="F8">
+        <v>23.25688558841718</v>
+      </c>
+      <c r="G8">
+        <v>174</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>250</v>
+      </c>
+      <c r="J8">
+        <v>239</v>
+      </c>
+      <c r="K8">
+        <v>239</v>
+      </c>
+      <c r="L8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>23496</v>
+      </c>
+      <c r="B9">
+        <v>234.96</v>
+      </c>
+      <c r="C9">
+        <v>239</v>
+      </c>
+      <c r="D9">
+        <v>239</v>
+      </c>
+      <c r="E9">
+        <v>545.5135353535367</v>
+      </c>
+      <c r="F9">
+        <v>23.35623118898973</v>
+      </c>
+      <c r="G9">
+        <v>180</v>
+      </c>
+      <c r="H9">
+        <v>74</v>
+      </c>
+      <c r="I9">
+        <v>254</v>
+      </c>
+      <c r="J9">
+        <v>239</v>
+      </c>
+      <c r="K9">
+        <v>239</v>
+      </c>
+      <c r="L9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>23517</v>
+      </c>
+      <c r="B10">
+        <v>235.17</v>
+      </c>
+      <c r="C10">
+        <v>239</v>
+      </c>
+      <c r="D10">
+        <v>239</v>
+      </c>
+      <c r="E10">
+        <v>499.5566666666656</v>
+      </c>
+      <c r="F10">
+        <v>22.3507643418892</v>
+      </c>
+      <c r="G10">
+        <v>175</v>
+      </c>
+      <c r="H10">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <v>254</v>
+      </c>
+      <c r="J10">
+        <v>239</v>
+      </c>
+      <c r="K10">
+        <v>239</v>
+      </c>
+      <c r="L10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>23505</v>
+      </c>
+      <c r="B11">
+        <v>235.05</v>
+      </c>
+      <c r="C11">
+        <v>239</v>
+      </c>
+      <c r="D11">
+        <v>239</v>
+      </c>
+      <c r="E11">
+        <v>581.8661616161618</v>
+      </c>
+      <c r="F11">
+        <v>24.12190211438894</v>
+      </c>
+      <c r="G11">
+        <v>195</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>242</v>
+      </c>
+      <c r="J11">
+        <v>239</v>
+      </c>
+      <c r="K11">
+        <v>239</v>
+      </c>
+      <c r="L11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>23538</v>
+      </c>
+      <c r="B12">
+        <v>235.38</v>
+      </c>
+      <c r="C12">
+        <v>239</v>
+      </c>
+      <c r="D12">
+        <v>239</v>
+      </c>
+      <c r="E12">
+        <v>420.2379797979785</v>
+      </c>
+      <c r="F12">
+        <v>20.49970682224452</v>
+      </c>
+      <c r="G12">
+        <v>158</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>248</v>
+      </c>
+      <c r="J12">
+        <v>239</v>
+      </c>
+      <c r="K12">
+        <v>239</v>
+      </c>
+      <c r="L12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>23565</v>
+      </c>
+      <c r="B13">
+        <v>235.65</v>
+      </c>
+      <c r="C13">
+        <v>239</v>
+      </c>
+      <c r="D13">
+        <v>239</v>
+      </c>
+      <c r="E13">
+        <v>312.5328282828282</v>
+      </c>
+      <c r="F13">
+        <v>17.67859802933559</v>
+      </c>
+      <c r="G13">
+        <v>132</v>
+      </c>
+      <c r="H13">
+        <v>116</v>
+      </c>
+      <c r="I13">
+        <v>248</v>
+      </c>
+      <c r="J13">
+        <v>239</v>
+      </c>
+      <c r="K13">
+        <v>239</v>
+      </c>
+      <c r="L13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>23514</v>
+      </c>
+      <c r="B14">
+        <v>235.14</v>
+      </c>
+      <c r="C14">
+        <v>239</v>
+      </c>
+      <c r="D14">
+        <v>239</v>
+      </c>
+      <c r="E14">
+        <v>475.0105050505043</v>
+      </c>
+      <c r="F14">
+        <v>21.79473571875797</v>
+      </c>
+      <c r="G14">
+        <v>192</v>
+      </c>
+      <c r="H14">
+        <v>63</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>238</v>
+      </c>
+      <c r="K14">
+        <v>239</v>
+      </c>
+      <c r="L14">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>22926</v>
+      </c>
+      <c r="B15">
+        <v>229.26</v>
+      </c>
+      <c r="C15">
+        <v>239</v>
+      </c>
+      <c r="D15">
+        <v>239</v>
+      </c>
+      <c r="E15">
+        <v>1052.214545454545</v>
+      </c>
+      <c r="F15">
+        <v>32.43785667171222</v>
+      </c>
+      <c r="G15">
+        <v>223</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>250</v>
+      </c>
+      <c r="J15">
+        <v>238</v>
+      </c>
+      <c r="K15">
+        <v>239</v>
+      </c>
+      <c r="L15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>21490</v>
+      </c>
+      <c r="B16">
+        <v>214.9</v>
+      </c>
+      <c r="C16">
+        <v>239</v>
+      </c>
+      <c r="D16">
+        <v>239</v>
+      </c>
+      <c r="E16">
+        <v>2638.131313131312</v>
+      </c>
+      <c r="F16">
+        <v>51.36274246115867</v>
+      </c>
+      <c r="G16">
+        <v>211</v>
+      </c>
+      <c r="H16">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>252</v>
+      </c>
+      <c r="J16">
+        <v>228.25</v>
+      </c>
+      <c r="K16">
+        <v>239</v>
+      </c>
+      <c r="L16">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>20301</v>
+      </c>
+      <c r="B17">
+        <v>203.01</v>
+      </c>
+      <c r="C17">
+        <v>239</v>
+      </c>
+      <c r="D17">
+        <v>239</v>
+      </c>
+      <c r="E17">
+        <v>3119.828181818174</v>
+      </c>
+      <c r="F17">
+        <v>55.85542213445508</v>
+      </c>
+      <c r="G17">
+        <v>182</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>247</v>
+      </c>
+      <c r="J17">
+        <v>155.25</v>
+      </c>
+      <c r="K17">
+        <v>239</v>
+      </c>
+      <c r="L17">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>20588</v>
+      </c>
+      <c r="B18">
+        <v>205.88</v>
+      </c>
+      <c r="C18">
+        <v>239</v>
+      </c>
+      <c r="D18">
+        <v>239</v>
+      </c>
+      <c r="E18">
+        <v>3455.601616161623</v>
+      </c>
+      <c r="F18">
+        <v>58.78436540579155</v>
+      </c>
+      <c r="G18">
+        <v>216</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>253</v>
+      </c>
+      <c r="J18">
+        <v>189</v>
+      </c>
+      <c r="K18">
+        <v>239</v>
+      </c>
+      <c r="L18">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>20636</v>
+      </c>
+      <c r="B19">
+        <v>206.36</v>
+      </c>
+      <c r="C19">
+        <v>239</v>
+      </c>
+      <c r="D19">
+        <v>239</v>
+      </c>
+      <c r="E19">
+        <v>3482.11151515151</v>
+      </c>
+      <c r="F19">
+        <v>59.00941886810537</v>
+      </c>
+      <c r="G19">
+        <v>213</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>203</v>
+      </c>
+      <c r="K19">
+        <v>239</v>
+      </c>
+      <c r="L19">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>20592</v>
+      </c>
+      <c r="B20">
+        <v>205.92</v>
+      </c>
+      <c r="C20">
+        <v>239</v>
+      </c>
+      <c r="D20">
+        <v>239</v>
+      </c>
+      <c r="E20">
+        <v>3708.902626262622</v>
+      </c>
+      <c r="F20">
+        <v>60.90076047359854</v>
+      </c>
+      <c r="G20">
+        <v>205</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>205.5</v>
+      </c>
+      <c r="K20">
+        <v>239</v>
+      </c>
+      <c r="L20">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20650</v>
+      </c>
+      <c r="B21">
+        <v>206.5</v>
+      </c>
+      <c r="C21">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>239</v>
+      </c>
+      <c r="E21">
+        <v>4127.50505050505</v>
+      </c>
+      <c r="F21">
+        <v>64.24566172517059</v>
+      </c>
+      <c r="G21">
+        <v>226</v>
+      </c>
+      <c r="H21">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>223</v>
+      </c>
+      <c r="K21">
+        <v>239</v>
+      </c>
+      <c r="L21">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>20889</v>
+      </c>
+      <c r="B22">
+        <v>208.89</v>
+      </c>
+      <c r="C22">
+        <v>239</v>
+      </c>
+      <c r="D22">
+        <v>239</v>
+      </c>
+      <c r="E22">
+        <v>4195.997878787885</v>
+      </c>
+      <c r="F22">
+        <v>64.77652258949908</v>
+      </c>
+      <c r="G22">
+        <v>245</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>229</v>
+      </c>
+      <c r="K22">
+        <v>239</v>
+      </c>
+      <c r="L22">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>20920</v>
+      </c>
+      <c r="B23">
+        <v>209.2</v>
+      </c>
+      <c r="C23">
+        <v>239</v>
+      </c>
+      <c r="D23">
+        <v>239</v>
+      </c>
+      <c r="E23">
+        <v>4466.44444444444</v>
+      </c>
+      <c r="F23">
+        <v>66.83146298297262</v>
+      </c>
+      <c r="G23">
+        <v>233</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>231</v>
+      </c>
+      <c r="K23">
+        <v>239</v>
+      </c>
+      <c r="L23">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>21213</v>
+      </c>
+      <c r="B24">
+        <v>212.13</v>
+      </c>
+      <c r="C24">
+        <v>239</v>
+      </c>
+      <c r="D24">
+        <v>239</v>
+      </c>
+      <c r="E24">
+        <v>4087.528383838391</v>
+      </c>
+      <c r="F24">
+        <v>63.93378124151887</v>
+      </c>
+      <c r="G24">
+        <v>244</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>235.75</v>
+      </c>
+      <c r="K24">
+        <v>239</v>
+      </c>
+      <c r="L24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>21320</v>
+      </c>
+      <c r="B25">
+        <v>213.2</v>
+      </c>
+      <c r="C25">
+        <v>239</v>
+      </c>
+      <c r="D25">
+        <v>239</v>
+      </c>
+      <c r="E25">
+        <v>3715.555555555558</v>
+      </c>
+      <c r="F25">
+        <v>60.95535707019981</v>
+      </c>
+      <c r="G25">
+        <v>232</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>235</v>
+      </c>
+      <c r="K25">
+        <v>239</v>
+      </c>
+      <c r="L25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>21061</v>
+      </c>
+      <c r="B26">
+        <v>210.61</v>
+      </c>
+      <c r="C26">
+        <v>239</v>
+      </c>
+      <c r="D26">
+        <v>239</v>
+      </c>
+      <c r="E26">
+        <v>3510.139292929287</v>
+      </c>
+      <c r="F26">
+        <v>59.24642852467385</v>
+      </c>
+      <c r="G26">
+        <v>218</v>
+      </c>
+      <c r="H26">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>207.25</v>
+      </c>
+      <c r="K26">
+        <v>239</v>
+      </c>
+      <c r="L26">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>20698</v>
+      </c>
+      <c r="B27">
+        <v>206.98</v>
+      </c>
+      <c r="C27">
+        <v>239</v>
+      </c>
+      <c r="D27">
+        <v>239</v>
+      </c>
+      <c r="E27">
+        <v>4028.646060606057</v>
+      </c>
+      <c r="F27">
+        <v>63.47161618082571</v>
+      </c>
+      <c r="G27">
+        <v>246</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>189</v>
+      </c>
+      <c r="K27">
+        <v>239</v>
+      </c>
+      <c r="L27">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>20558</v>
+      </c>
+      <c r="B28">
+        <v>205.58</v>
+      </c>
+      <c r="C28">
+        <v>239</v>
+      </c>
+      <c r="D28">
+        <v>239</v>
+      </c>
+      <c r="E28">
+        <v>4543.761212121219</v>
+      </c>
+      <c r="F28">
+        <v>67.40742698042419</v>
+      </c>
+      <c r="G28">
+        <v>236</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>187.25</v>
+      </c>
+      <c r="K28">
+        <v>239</v>
+      </c>
+      <c r="L28">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>20466</v>
+      </c>
+      <c r="B29">
+        <v>204.66</v>
+      </c>
+      <c r="C29">
+        <v>239</v>
+      </c>
+      <c r="D29">
+        <v>239</v>
+      </c>
+      <c r="E29">
+        <v>4918.267070707075</v>
+      </c>
+      <c r="F29">
+        <v>70.13035769698509</v>
+      </c>
+      <c r="G29">
+        <v>228</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>216.5</v>
+      </c>
+      <c r="K29">
+        <v>239</v>
+      </c>
+      <c r="L29">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>20787</v>
+      </c>
+      <c r="B30">
+        <v>207.87</v>
+      </c>
+      <c r="C30">
+        <v>239</v>
+      </c>
+      <c r="D30">
+        <v>239</v>
+      </c>
+      <c r="E30">
+        <v>4182.41727272727</v>
+      </c>
+      <c r="F30">
+        <v>64.6716110262244</v>
+      </c>
+      <c r="G30">
+        <v>228</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>204.75</v>
+      </c>
+      <c r="K30">
+        <v>239</v>
+      </c>
+      <c r="L30">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>21691</v>
+      </c>
+      <c r="B31">
+        <v>216.91</v>
+      </c>
+      <c r="C31">
+        <v>239</v>
+      </c>
+      <c r="D31">
+        <v>239</v>
+      </c>
+      <c r="E31">
+        <v>2472.405959595959</v>
+      </c>
+      <c r="F31">
+        <v>49.72329393348714</v>
+      </c>
+      <c r="G31">
+        <v>217</v>
+      </c>
+      <c r="H31">
+        <v>38</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>198.5</v>
+      </c>
+      <c r="K31">
+        <v>239</v>
+      </c>
+      <c r="L31">
+        <v>240.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>21858</v>
+      </c>
+      <c r="B32">
+        <v>218.58</v>
+      </c>
+      <c r="C32">
+        <v>239</v>
+      </c>
+      <c r="D32">
+        <v>239</v>
+      </c>
+      <c r="E32">
+        <v>2228.589494949493</v>
+      </c>
+      <c r="F32">
+        <v>47.20793889749363</v>
+      </c>
+      <c r="G32">
+        <v>214</v>
+      </c>
+      <c r="H32">
+        <v>41</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>198</v>
+      </c>
+      <c r="K32">
+        <v>239</v>
+      </c>
+      <c r="L32">
+        <v>240.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>22140</v>
+      </c>
+      <c r="B33">
+        <v>221.4</v>
+      </c>
+      <c r="C33">
+        <v>239</v>
+      </c>
+      <c r="D33">
+        <v>239</v>
+      </c>
+      <c r="E33">
+        <v>2248.767676767679</v>
+      </c>
+      <c r="F33">
+        <v>47.42117329598329</v>
+      </c>
+      <c r="G33">
+        <v>224</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>227.5</v>
+      </c>
+      <c r="K33">
+        <v>239</v>
+      </c>
+      <c r="L33">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>22308</v>
+      </c>
+      <c r="B34">
+        <v>223.08</v>
+      </c>
+      <c r="C34">
+        <v>239</v>
+      </c>
+      <c r="D34">
+        <v>239</v>
+      </c>
+      <c r="E34">
+        <v>2167.023838383835</v>
+      </c>
+      <c r="F34">
+        <v>46.55130329414887</v>
+      </c>
+      <c r="G34">
+        <v>208</v>
+      </c>
+      <c r="H34">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>238.75</v>
+      </c>
+      <c r="K34">
+        <v>239</v>
+      </c>
+      <c r="L34">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>21824</v>
+      </c>
+      <c r="B35">
+        <v>218.24</v>
+      </c>
+      <c r="C35">
+        <v>239</v>
+      </c>
+      <c r="D35">
+        <v>239</v>
+      </c>
+      <c r="E35">
+        <v>3270.628686868684</v>
+      </c>
+      <c r="F35">
+        <v>57.18941061830139</v>
+      </c>
+      <c r="G35">
+        <v>207</v>
+      </c>
+      <c r="H35">
+        <v>48</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>238</v>
+      </c>
+      <c r="K35">
+        <v>239</v>
+      </c>
+      <c r="L35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>22997</v>
+      </c>
+      <c r="B36">
+        <v>229.97</v>
+      </c>
+      <c r="C36">
+        <v>239</v>
+      </c>
+      <c r="D36">
+        <v>239</v>
+      </c>
+      <c r="E36">
+        <v>1173.988989898992</v>
+      </c>
+      <c r="F36">
+        <v>34.26352273043435</v>
+      </c>
+      <c r="G36">
+        <v>181</v>
+      </c>
+      <c r="H36">
+        <v>74</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>239</v>
+      </c>
+      <c r="K36">
+        <v>239</v>
+      </c>
+      <c r="L36">
+        <v>248.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>23749</v>
+      </c>
+      <c r="B37">
+        <v>237.49</v>
+      </c>
+      <c r="C37">
+        <v>239</v>
+      </c>
+      <c r="D37">
+        <v>239</v>
+      </c>
+      <c r="E37">
+        <v>850.7170707070717</v>
+      </c>
+      <c r="F37">
+        <v>29.16705454287546</v>
+      </c>
+      <c r="G37">
+        <v>228</v>
+      </c>
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>239</v>
+      </c>
+      <c r="K37">
+        <v>239</v>
+      </c>
+      <c r="L37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>23739</v>
+      </c>
+      <c r="B38">
+        <v>237.39</v>
+      </c>
+      <c r="C38">
+        <v>239</v>
+      </c>
+      <c r="D38">
+        <v>239</v>
+      </c>
+      <c r="E38">
+        <v>770.9069696969683</v>
+      </c>
+      <c r="F38">
+        <v>27.76521150103072</v>
+      </c>
+      <c r="G38">
+        <v>157</v>
+      </c>
+      <c r="H38">
+        <v>98</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>239</v>
+      </c>
+      <c r="K38">
+        <v>239</v>
+      </c>
+      <c r="L38">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>23772</v>
+      </c>
+      <c r="B39">
+        <v>237.72</v>
+      </c>
+      <c r="C39">
+        <v>239.5</v>
+      </c>
+      <c r="D39">
+        <v>239</v>
+      </c>
+      <c r="E39">
+        <v>923.456161616161</v>
+      </c>
+      <c r="F39">
+        <v>30.38842150583279</v>
+      </c>
+      <c r="G39">
+        <v>221</v>
+      </c>
+      <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>239</v>
+      </c>
+      <c r="K39">
+        <v>239.5</v>
+      </c>
+      <c r="L39">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>23787</v>
+      </c>
+      <c r="B40">
+        <v>237.87</v>
+      </c>
+      <c r="C40">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>239</v>
+      </c>
+      <c r="E40">
+        <v>913.326363636363</v>
+      </c>
+      <c r="F40">
+        <v>30.22128990689118</v>
+      </c>
+      <c r="G40">
+        <v>218</v>
+      </c>
+      <c r="H40">
+        <v>37</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>239</v>
+      </c>
+      <c r="K40">
+        <v>239</v>
+      </c>
+      <c r="L40">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>23783</v>
+      </c>
+      <c r="B41">
+        <v>237.83</v>
+      </c>
+      <c r="C41">
+        <v>239</v>
+      </c>
+      <c r="D41">
+        <v>239</v>
+      </c>
+      <c r="E41">
+        <v>919.2536363636358</v>
+      </c>
+      <c r="F41">
+        <v>30.31919583965966</v>
+      </c>
+      <c r="G41">
+        <v>199</v>
+      </c>
+      <c r="H41">
+        <v>56</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>239</v>
+      </c>
+      <c r="K41">
+        <v>239</v>
+      </c>
+      <c r="L41">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>23751</v>
+      </c>
+      <c r="B42">
+        <v>237.51</v>
+      </c>
+      <c r="C42">
+        <v>239</v>
+      </c>
+      <c r="D42">
+        <v>239</v>
+      </c>
+      <c r="E42">
+        <v>929.6261616161626</v>
+      </c>
+      <c r="F42">
+        <v>30.48977142610555</v>
+      </c>
+      <c r="G42">
+        <v>206</v>
+      </c>
+      <c r="H42">
+        <v>49</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>239</v>
+      </c>
+      <c r="K42">
+        <v>239</v>
+      </c>
+      <c r="L42">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>23799</v>
+      </c>
+      <c r="B43">
+        <v>237.99</v>
+      </c>
+      <c r="C43">
+        <v>239</v>
+      </c>
+      <c r="D43">
+        <v>239</v>
+      </c>
+      <c r="E43">
+        <v>916.2928282828275</v>
+      </c>
+      <c r="F43">
+        <v>30.2703291736781</v>
+      </c>
+      <c r="G43">
+        <v>218</v>
+      </c>
+      <c r="H43">
+        <v>37</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>239</v>
+      </c>
+      <c r="K43">
+        <v>239</v>
+      </c>
+      <c r="L43">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>23770</v>
+      </c>
+      <c r="B44">
+        <v>237.7</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <v>239</v>
+      </c>
+      <c r="E44">
+        <v>845.7676767676772</v>
+      </c>
+      <c r="F44">
+        <v>29.08208515164752</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>55</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>239</v>
+      </c>
+      <c r="K44">
+        <v>239</v>
+      </c>
+      <c r="L44">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>23879</v>
+      </c>
+      <c r="B45">
+        <v>238.79</v>
+      </c>
+      <c r="C45">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>239</v>
+      </c>
+      <c r="E45">
+        <v>745.1978787878787</v>
+      </c>
+      <c r="F45">
+        <v>27.29831274617313</v>
+      </c>
+      <c r="G45">
+        <v>169</v>
+      </c>
+      <c r="H45">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>239</v>
+      </c>
+      <c r="K45">
+        <v>239</v>
+      </c>
+      <c r="L45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>23905</v>
+      </c>
+      <c r="B46">
+        <v>239.05</v>
+      </c>
+      <c r="C46">
+        <v>239</v>
+      </c>
+      <c r="D46">
+        <v>239</v>
+      </c>
+      <c r="E46">
+        <v>723.5429292929301</v>
+      </c>
+      <c r="F46">
+        <v>26.89875330369291</v>
+      </c>
+      <c r="G46">
+        <v>160</v>
+      </c>
+      <c r="H46">
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>239</v>
+      </c>
+      <c r="K46">
+        <v>239</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>23914</v>
+      </c>
+      <c r="B47">
+        <v>239.14</v>
+      </c>
+      <c r="C47">
+        <v>239</v>
+      </c>
+      <c r="D47">
+        <v>239</v>
+      </c>
+      <c r="E47">
+        <v>702.9903030303028</v>
+      </c>
+      <c r="F47">
+        <v>26.51396430242567</v>
+      </c>
+      <c r="G47">
+        <v>151</v>
+      </c>
+      <c r="H47">
+        <v>104</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>239</v>
+      </c>
+      <c r="K47">
+        <v>239</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>23913</v>
+      </c>
+      <c r="B48">
+        <v>239.13</v>
+      </c>
+      <c r="C48">
+        <v>239.5</v>
+      </c>
+      <c r="D48">
+        <v>239</v>
+      </c>
+      <c r="E48">
+        <v>708.4980808080808</v>
+      </c>
+      <c r="F48">
+        <v>26.617627257291</v>
+      </c>
+      <c r="G48">
+        <v>151</v>
+      </c>
+      <c r="H48">
+        <v>104</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>239</v>
+      </c>
+      <c r="K48">
+        <v>239.5</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>23892</v>
+      </c>
+      <c r="B49">
+        <v>238.92</v>
+      </c>
+      <c r="C49">
+        <v>239</v>
+      </c>
+      <c r="D49">
+        <v>239</v>
+      </c>
+      <c r="E49">
+        <v>736.8218181818175</v>
+      </c>
+      <c r="F49">
+        <v>27.14446201680589</v>
+      </c>
+      <c r="G49">
+        <v>158</v>
+      </c>
+      <c r="H49">
+        <v>97</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>239</v>
+      </c>
+      <c r="K49">
+        <v>239</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>23862</v>
+      </c>
+      <c r="B50">
+        <v>238.62</v>
+      </c>
+      <c r="C50">
+        <v>239</v>
+      </c>
+      <c r="D50">
+        <v>239</v>
+      </c>
+      <c r="E50">
+        <v>772.7834343434354</v>
+      </c>
+      <c r="F50">
+        <v>27.79898261345971</v>
+      </c>
+      <c r="G50">
+        <v>164</v>
+      </c>
+      <c r="H50">
+        <v>91</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>239</v>
+      </c>
+      <c r="K50">
+        <v>239</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>23828</v>
+      </c>
+      <c r="B51">
+        <v>238.28</v>
+      </c>
+      <c r="C51">
+        <v>239</v>
+      </c>
+      <c r="D51">
+        <v>239</v>
+      </c>
+      <c r="E51">
+        <v>837.13292929293</v>
+      </c>
+      <c r="F51">
+        <v>28.93324954603147</v>
+      </c>
+      <c r="G51">
+        <v>170</v>
+      </c>
+      <c r="H51">
+        <v>85</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>239</v>
+      </c>
+      <c r="K51">
+        <v>239</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>23827</v>
+      </c>
+      <c r="B52">
+        <v>238.27</v>
+      </c>
+      <c r="C52">
+        <v>239</v>
+      </c>
+      <c r="D52">
+        <v>239</v>
+      </c>
+      <c r="E52">
+        <v>873.6132323232334</v>
+      </c>
+      <c r="F52">
+        <v>29.55694896844452</v>
+      </c>
+      <c r="G52">
+        <v>179</v>
+      </c>
+      <c r="H52">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>239</v>
+      </c>
+      <c r="K52">
+        <v>239</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>23785</v>
+      </c>
+      <c r="B53">
+        <v>237.85</v>
+      </c>
+      <c r="C53">
+        <v>239</v>
+      </c>
+      <c r="D53">
+        <v>239</v>
+      </c>
+      <c r="E53">
+        <v>986.9166666666646</v>
+      </c>
+      <c r="F53">
+        <v>31.41522985220169</v>
+      </c>
+      <c r="G53">
+        <v>196</v>
+      </c>
+      <c r="H53">
+        <v>59</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>239</v>
+      </c>
+      <c r="K53">
+        <v>239</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>23740</v>
+      </c>
+      <c r="B54">
+        <v>237.4</v>
+      </c>
+      <c r="C54">
+        <v>239</v>
+      </c>
+      <c r="D54">
+        <v>239</v>
+      </c>
+      <c r="E54">
+        <v>1079.252525252526</v>
+      </c>
+      <c r="F54">
+        <v>32.85197901576898</v>
+      </c>
+      <c r="G54">
+        <v>207</v>
+      </c>
+      <c r="H54">
+        <v>48</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>239</v>
+      </c>
+      <c r="K54">
+        <v>239</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>23725</v>
+      </c>
+      <c r="B55">
+        <v>237.25</v>
+      </c>
+      <c r="C55">
+        <v>239</v>
+      </c>
+      <c r="D55">
+        <v>239</v>
+      </c>
+      <c r="E55">
+        <v>1035.239898989899</v>
+      </c>
+      <c r="F55">
+        <v>32.17514411762438</v>
+      </c>
+      <c r="G55">
+        <v>206</v>
+      </c>
+      <c r="H55">
+        <v>49</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>239</v>
+      </c>
+      <c r="K55">
+        <v>239</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>23769</v>
+      </c>
+      <c r="B56">
+        <v>237.69</v>
+      </c>
+      <c r="C56">
+        <v>239</v>
+      </c>
+      <c r="D56">
+        <v>239</v>
+      </c>
+      <c r="E56">
+        <v>810.5392929292942</v>
+      </c>
+      <c r="F56">
+        <v>28.4699717760537</v>
+      </c>
+      <c r="G56">
+        <v>173</v>
+      </c>
+      <c r="H56">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>239</v>
+      </c>
+      <c r="K56">
+        <v>239</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>23782</v>
+      </c>
+      <c r="B57">
+        <v>237.82</v>
+      </c>
+      <c r="C57">
+        <v>239</v>
+      </c>
+      <c r="D57">
+        <v>239</v>
+      </c>
+      <c r="E57">
+        <v>736.9975757575746</v>
+      </c>
+      <c r="F57">
+        <v>27.14769927190101</v>
+      </c>
+      <c r="G57">
+        <v>169</v>
+      </c>
+      <c r="H57">
+        <v>86</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>239</v>
+      </c>
+      <c r="K57">
+        <v>239</v>
+      </c>
+      <c r="L57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>23766</v>
+      </c>
+      <c r="B58">
+        <v>237.66</v>
+      </c>
+      <c r="C58">
+        <v>239</v>
+      </c>
+      <c r="D58">
+        <v>239</v>
+      </c>
+      <c r="E58">
+        <v>780.287272727272</v>
+      </c>
+      <c r="F58">
+        <v>27.93362262090744</v>
+      </c>
+      <c r="G58">
+        <v>198</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>239</v>
+      </c>
+      <c r="K58">
+        <v>239</v>
+      </c>
+      <c r="L58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>23750</v>
+      </c>
+      <c r="B59">
+        <v>237.5</v>
+      </c>
+      <c r="C59">
+        <v>239</v>
+      </c>
+      <c r="D59">
+        <v>239</v>
+      </c>
+      <c r="E59">
+        <v>743.2828282828283</v>
+      </c>
+      <c r="F59">
+        <v>27.26321382894593</v>
+      </c>
+      <c r="G59">
+        <v>164</v>
+      </c>
+      <c r="H59">
+        <v>91</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>239</v>
+      </c>
+      <c r="K59">
+        <v>239</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>23713</v>
+      </c>
+      <c r="B60">
+        <v>237.13</v>
+      </c>
+      <c r="C60">
+        <v>239</v>
+      </c>
+      <c r="D60">
+        <v>239</v>
+      </c>
+      <c r="E60">
+        <v>811.9122222222213</v>
+      </c>
+      <c r="F60">
+        <v>28.49407345786526</v>
+      </c>
+      <c r="G60">
+        <v>178</v>
+      </c>
+      <c r="H60">
+        <v>77</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>239</v>
+      </c>
+      <c r="K60">
+        <v>239</v>
+      </c>
+      <c r="L60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>23705</v>
+      </c>
+      <c r="B61">
+        <v>237.05</v>
+      </c>
+      <c r="C61">
+        <v>239</v>
+      </c>
+      <c r="D61">
+        <v>239</v>
+      </c>
+      <c r="E61">
+        <v>955.3813131313142</v>
+      </c>
+      <c r="F61">
+        <v>30.90924316658876</v>
+      </c>
+      <c r="G61">
+        <v>204</v>
+      </c>
+      <c r="H61">
+        <v>51</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>239</v>
+      </c>
+      <c r="K61">
+        <v>239</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>23649</v>
+      </c>
+      <c r="B62">
+        <v>236.49</v>
+      </c>
+      <c r="C62">
+        <v>239</v>
+      </c>
+      <c r="D62">
+        <v>239</v>
+      </c>
+      <c r="E62">
+        <v>1136.353434343433</v>
+      </c>
+      <c r="F62">
+        <v>33.70984180240888</v>
+      </c>
+      <c r="G62">
+        <v>222</v>
+      </c>
+      <c r="H62">
+        <v>33</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>239</v>
+      </c>
+      <c r="K62">
+        <v>239</v>
+      </c>
+      <c r="L62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>23633</v>
+      </c>
+      <c r="B63">
+        <v>236.33</v>
+      </c>
+      <c r="C63">
+        <v>239</v>
+      </c>
+      <c r="D63">
+        <v>239</v>
+      </c>
+      <c r="E63">
+        <v>1021.374848484848</v>
+      </c>
+      <c r="F63">
+        <v>31.95895568514165</v>
+      </c>
+      <c r="G63">
+        <v>216</v>
+      </c>
+      <c r="H63">
+        <v>39</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>239</v>
+      </c>
+      <c r="K63">
+        <v>239</v>
+      </c>
+      <c r="L63">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>23622</v>
+      </c>
+      <c r="B64">
+        <v>236.22</v>
+      </c>
+      <c r="C64">
+        <v>239</v>
+      </c>
+      <c r="D64">
+        <v>239</v>
+      </c>
+      <c r="E64">
+        <v>1018.092525252526</v>
+      </c>
+      <c r="F64">
+        <v>31.90756219538758</v>
+      </c>
+      <c r="G64">
+        <v>230</v>
+      </c>
+      <c r="H64">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>239</v>
+      </c>
+      <c r="K64">
+        <v>239</v>
+      </c>
+      <c r="L64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>23615</v>
+      </c>
+      <c r="B65">
+        <v>236.15</v>
+      </c>
+      <c r="C65">
+        <v>239</v>
+      </c>
+      <c r="D65">
+        <v>239</v>
+      </c>
+      <c r="E65">
+        <v>856.1489898989892</v>
+      </c>
+      <c r="F65">
+        <v>29.2600237508275</v>
+      </c>
+      <c r="G65">
+        <v>158</v>
+      </c>
+      <c r="H65">
+        <v>97</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>239</v>
+      </c>
+      <c r="K65">
+        <v>239</v>
+      </c>
+      <c r="L65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>23609</v>
+      </c>
+      <c r="B66">
+        <v>236.09</v>
+      </c>
+      <c r="C66">
+        <v>239</v>
+      </c>
+      <c r="D66">
+        <v>239</v>
+      </c>
+      <c r="E66">
+        <v>957.9615151515151</v>
+      </c>
+      <c r="F66">
+        <v>30.95095338033249</v>
+      </c>
+      <c r="G66">
+        <v>203</v>
+      </c>
+      <c r="H66">
+        <v>52</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>239</v>
+      </c>
+      <c r="K66">
+        <v>239</v>
+      </c>
+      <c r="L66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>23567</v>
+      </c>
+      <c r="B67">
+        <v>235.67</v>
+      </c>
+      <c r="C67">
+        <v>239</v>
+      </c>
+      <c r="D67">
+        <v>239</v>
+      </c>
+      <c r="E67">
+        <v>1144.142525252526</v>
+      </c>
+      <c r="F67">
+        <v>33.82517590867084</v>
+      </c>
+      <c r="G67">
+        <v>235</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>239</v>
+      </c>
+      <c r="K67">
+        <v>239</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>23580</v>
+      </c>
+      <c r="B68">
+        <v>235.8</v>
+      </c>
+      <c r="C68">
+        <v>239</v>
+      </c>
+      <c r="D68">
+        <v>239</v>
+      </c>
+      <c r="E68">
+        <v>1032.505050505052</v>
+      </c>
+      <c r="F68">
+        <v>32.1326166146651</v>
+      </c>
+      <c r="G68">
+        <v>211</v>
+      </c>
+      <c r="H68">
+        <v>44</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>239</v>
+      </c>
+      <c r="K68">
+        <v>239</v>
+      </c>
+      <c r="L68">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>23582</v>
+      </c>
+      <c r="B69">
+        <v>235.82</v>
+      </c>
+      <c r="C69">
+        <v>239</v>
+      </c>
+      <c r="D69">
+        <v>239</v>
+      </c>
+      <c r="E69">
+        <v>861.74505050505</v>
+      </c>
+      <c r="F69">
+        <v>29.35549438359113</v>
+      </c>
+      <c r="G69">
+        <v>165</v>
+      </c>
+      <c r="H69">
+        <v>90</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>239</v>
+      </c>
+      <c r="K69">
+        <v>239</v>
+      </c>
+      <c r="L69">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>23500</v>
+      </c>
+      <c r="B70">
+        <v>235</v>
+      </c>
+      <c r="C70">
+        <v>239</v>
+      </c>
+      <c r="D70">
+        <v>239</v>
+      </c>
+      <c r="E70">
+        <v>1082.909090909091</v>
+      </c>
+      <c r="F70">
+        <v>32.90758409408219</v>
+      </c>
+      <c r="G70">
+        <v>206</v>
+      </c>
+      <c r="H70">
+        <v>49</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>239</v>
+      </c>
+      <c r="K70">
+        <v>239</v>
+      </c>
+      <c r="L70">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>23529</v>
+      </c>
+      <c r="B71">
+        <v>235.29</v>
+      </c>
+      <c r="C71">
+        <v>239</v>
+      </c>
+      <c r="D71">
+        <v>239</v>
+      </c>
+      <c r="E71">
+        <v>1150.612020202021</v>
+      </c>
+      <c r="F71">
+        <v>33.9206724609348</v>
+      </c>
+      <c r="G71">
+        <v>234</v>
+      </c>
+      <c r="H71">
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>239</v>
+      </c>
+      <c r="K71">
+        <v>239</v>
+      </c>
+      <c r="L71">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>23537</v>
+      </c>
+      <c r="B72">
+        <v>235.37</v>
+      </c>
+      <c r="C72">
+        <v>239</v>
+      </c>
+      <c r="D72">
+        <v>239</v>
+      </c>
+      <c r="E72">
+        <v>907.5889898989909</v>
+      </c>
+      <c r="F72">
+        <v>30.12621765006339</v>
+      </c>
+      <c r="G72">
+        <v>188</v>
+      </c>
+      <c r="H72">
+        <v>67</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>239</v>
+      </c>
+      <c r="K72">
+        <v>239</v>
+      </c>
+      <c r="L72">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>23563</v>
+      </c>
+      <c r="B73">
+        <v>235.63</v>
+      </c>
+      <c r="C73">
+        <v>239</v>
+      </c>
+      <c r="D73">
+        <v>239</v>
+      </c>
+      <c r="E73">
+        <v>810.3162626262622</v>
+      </c>
+      <c r="F73">
+        <v>28.46605456726067</v>
+      </c>
+      <c r="G73">
+        <v>155</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>239</v>
+      </c>
+      <c r="K73">
+        <v>239</v>
+      </c>
+      <c r="L73">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>23502</v>
+      </c>
+      <c r="B74">
+        <v>235.02</v>
+      </c>
+      <c r="C74">
+        <v>239</v>
+      </c>
+      <c r="D74">
+        <v>239</v>
+      </c>
+      <c r="E74">
+        <v>1046.504646464647</v>
+      </c>
+      <c r="F74">
+        <v>32.34972405546371</v>
+      </c>
+      <c r="G74">
+        <v>202</v>
+      </c>
+      <c r="H74">
+        <v>53</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>239</v>
+      </c>
+      <c r="K74">
+        <v>239</v>
+      </c>
+      <c r="L74">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>23444</v>
+      </c>
+      <c r="B75">
+        <v>234.44</v>
+      </c>
+      <c r="C75">
+        <v>239</v>
+      </c>
+      <c r="D75">
+        <v>239</v>
+      </c>
+      <c r="E75">
+        <v>953.1377777777791</v>
+      </c>
+      <c r="F75">
+        <v>30.87292953021755</v>
+      </c>
+      <c r="G75">
+        <v>184</v>
+      </c>
+      <c r="H75">
+        <v>71</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>239</v>
+      </c>
+      <c r="K75">
+        <v>239</v>
+      </c>
+      <c r="L75">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>23467</v>
+      </c>
+      <c r="B76">
+        <v>234.67</v>
+      </c>
+      <c r="C76">
+        <v>239</v>
+      </c>
+      <c r="D76">
+        <v>239</v>
+      </c>
+      <c r="E76">
+        <v>861.8394949494964</v>
+      </c>
+      <c r="F76">
+        <v>29.35710297269634</v>
+      </c>
+      <c r="G76">
+        <v>174</v>
+      </c>
+      <c r="H76">
+        <v>81</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>239</v>
+      </c>
+      <c r="K76">
+        <v>239</v>
+      </c>
+      <c r="L76">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>23464</v>
+      </c>
+      <c r="B77">
+        <v>234.64</v>
+      </c>
+      <c r="C77">
+        <v>239</v>
+      </c>
+      <c r="D77">
+        <v>239</v>
+      </c>
+      <c r="E77">
+        <v>887.8690909090925</v>
+      </c>
+      <c r="F77">
+        <v>29.7971322598181</v>
+      </c>
+      <c r="G77">
+        <v>188</v>
+      </c>
+      <c r="H77">
+        <v>67</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>239</v>
+      </c>
+      <c r="K77">
+        <v>239</v>
+      </c>
+      <c r="L77">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>23383</v>
+      </c>
+      <c r="B78">
+        <v>233.83</v>
+      </c>
+      <c r="C78">
+        <v>239</v>
+      </c>
+      <c r="D78">
+        <v>239</v>
+      </c>
+      <c r="E78">
+        <v>876.2031313131323</v>
+      </c>
+      <c r="F78">
+        <v>29.60072856051236</v>
+      </c>
+      <c r="G78">
+        <v>182</v>
+      </c>
+      <c r="H78">
+        <v>73</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>239</v>
+      </c>
+      <c r="K78">
+        <v>239</v>
+      </c>
+      <c r="L78">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>23401</v>
+      </c>
+      <c r="B79">
+        <v>234.01</v>
+      </c>
+      <c r="C79">
+        <v>239</v>
+      </c>
+      <c r="D79">
+        <v>239</v>
+      </c>
+      <c r="E79">
+        <v>858.2726262626257</v>
+      </c>
+      <c r="F79">
+        <v>29.29629031571448</v>
+      </c>
+      <c r="G79">
+        <v>158</v>
+      </c>
+      <c r="H79">
+        <v>97</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>239</v>
+      </c>
+      <c r="K79">
+        <v>239</v>
+      </c>
+      <c r="L79">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>23264</v>
+      </c>
+      <c r="B80">
+        <v>232.64</v>
+      </c>
+      <c r="C80">
+        <v>239</v>
+      </c>
+      <c r="D80">
+        <v>239</v>
+      </c>
+      <c r="E80">
+        <v>1070.717575757578</v>
+      </c>
+      <c r="F80">
+        <v>32.72182109476149</v>
+      </c>
+      <c r="G80">
+        <v>207</v>
+      </c>
+      <c r="H80">
+        <v>48</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>239</v>
+      </c>
+      <c r="K80">
+        <v>239</v>
+      </c>
+      <c r="L80">
+        <v>240.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>23190</v>
+      </c>
+      <c r="B81">
+        <v>231.9</v>
+      </c>
+      <c r="C81">
+        <v>239</v>
+      </c>
+      <c r="D81">
+        <v>239</v>
+      </c>
+      <c r="E81">
+        <v>1113.121212121213</v>
+      </c>
+      <c r="F81">
+        <v>33.36347122409797</v>
+      </c>
+      <c r="G81">
+        <v>194</v>
+      </c>
+      <c r="H81">
+        <v>61</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>239</v>
+      </c>
+      <c r="K81">
+        <v>239</v>
+      </c>
+      <c r="L81">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>23164</v>
+      </c>
+      <c r="B82">
+        <v>231.64</v>
+      </c>
+      <c r="C82">
+        <v>239</v>
+      </c>
+      <c r="D82">
+        <v>239</v>
+      </c>
+      <c r="E82">
+        <v>1088.071111111109</v>
+      </c>
+      <c r="F82">
+        <v>32.98592292343977</v>
+      </c>
+      <c r="G82">
+        <v>200</v>
+      </c>
+      <c r="H82">
+        <v>55</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>239</v>
+      </c>
+      <c r="K82">
+        <v>239</v>
+      </c>
+      <c r="L82">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>22680</v>
+      </c>
+      <c r="B83">
+        <v>226.8</v>
+      </c>
+      <c r="C83">
+        <v>239</v>
+      </c>
+      <c r="D83">
+        <v>239</v>
+      </c>
+      <c r="E83">
+        <v>1235.939393939392</v>
+      </c>
+      <c r="F83">
+        <v>35.15592971234572</v>
+      </c>
+      <c r="G83">
+        <v>215</v>
+      </c>
+      <c r="H83">
+        <v>40</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>239</v>
+      </c>
+      <c r="K83">
+        <v>239</v>
+      </c>
+      <c r="L83">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>22268</v>
+      </c>
+      <c r="B84">
+        <v>222.68</v>
+      </c>
+      <c r="C84">
+        <v>239</v>
+      </c>
+      <c r="D84">
+        <v>239</v>
+      </c>
+      <c r="E84">
+        <v>1253.694545454543</v>
+      </c>
+      <c r="F84">
+        <v>35.40754927207676</v>
+      </c>
+      <c r="G84">
+        <v>174</v>
+      </c>
+      <c r="H84">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>252</v>
+      </c>
+      <c r="J84">
+        <v>232.75</v>
+      </c>
+      <c r="K84">
+        <v>239</v>
+      </c>
+      <c r="L84">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>21793</v>
+      </c>
+      <c r="B85">
+        <v>217.93</v>
+      </c>
+      <c r="C85">
+        <v>239</v>
+      </c>
+      <c r="D85">
+        <v>239</v>
+      </c>
+      <c r="E85">
+        <v>1890.247575757577</v>
+      </c>
+      <c r="F85">
+        <v>43.47697753705491</v>
+      </c>
+      <c r="G85">
+        <v>190</v>
+      </c>
+      <c r="H85">
+        <v>59</v>
+      </c>
+      <c r="I85">
+        <v>249</v>
+      </c>
+      <c r="J85">
+        <v>228.5</v>
+      </c>
+      <c r="K85">
+        <v>239</v>
+      </c>
+      <c r="L85">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>21479</v>
+      </c>
+      <c r="B86">
+        <v>214.79</v>
+      </c>
+      <c r="C86">
+        <v>239</v>
+      </c>
+      <c r="D86">
+        <v>239</v>
+      </c>
+      <c r="E86">
+        <v>2184.612020202016</v>
+      </c>
+      <c r="F86">
+        <v>46.73983333519725</v>
+      </c>
+      <c r="G86">
+        <v>181</v>
+      </c>
+      <c r="H86">
+        <v>61</v>
+      </c>
+      <c r="I86">
+        <v>242</v>
+      </c>
+      <c r="J86">
+        <v>202.75</v>
+      </c>
+      <c r="K86">
+        <v>239</v>
+      </c>
+      <c r="L86">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>22319</v>
+      </c>
+      <c r="B87">
+        <v>223.19</v>
+      </c>
+      <c r="C87">
+        <v>239</v>
+      </c>
+      <c r="D87">
+        <v>239</v>
+      </c>
+      <c r="E87">
+        <v>1371.852424242425</v>
+      </c>
+      <c r="F87">
+        <v>37.03852621585294</v>
+      </c>
+      <c r="G87">
+        <v>195</v>
+      </c>
+      <c r="H87">
+        <v>58</v>
+      </c>
+      <c r="I87">
+        <v>253</v>
+      </c>
+      <c r="J87">
+        <v>237</v>
+      </c>
+      <c r="K87">
+        <v>239</v>
+      </c>
+      <c r="L87">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>22493</v>
+      </c>
+      <c r="B88">
+        <v>224.93</v>
+      </c>
+      <c r="C88">
+        <v>239</v>
+      </c>
+      <c r="D88">
+        <v>239</v>
+      </c>
+      <c r="E88">
+        <v>1283.66171717172</v>
+      </c>
+      <c r="F88">
+        <v>35.8282251468269</v>
+      </c>
+      <c r="G88">
+        <v>176</v>
+      </c>
+      <c r="H88">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>246</v>
+      </c>
+      <c r="J88">
+        <v>239</v>
+      </c>
+      <c r="K88">
+        <v>239</v>
+      </c>
+      <c r="L88">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>22480</v>
+      </c>
+      <c r="B89">
+        <v>224.8</v>
+      </c>
+      <c r="C89">
+        <v>239</v>
+      </c>
+      <c r="D89">
+        <v>239</v>
+      </c>
+      <c r="E89">
+        <v>1697.878787878793</v>
+      </c>
+      <c r="F89">
+        <v>41.20532475152687</v>
+      </c>
+      <c r="G89">
+        <v>217</v>
+      </c>
+      <c r="H89">
+        <v>27</v>
+      </c>
+      <c r="I89">
+        <v>244</v>
+      </c>
+      <c r="J89">
+        <v>239</v>
+      </c>
+      <c r="K89">
+        <v>239</v>
+      </c>
+      <c r="L89">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>22315</v>
+      </c>
+      <c r="B90">
+        <v>223.15</v>
+      </c>
+      <c r="C90">
+        <v>239</v>
+      </c>
+      <c r="D90">
+        <v>239</v>
+      </c>
+      <c r="E90">
+        <v>2122.714646464648</v>
+      </c>
+      <c r="F90">
+        <v>46.07292747877703</v>
+      </c>
+      <c r="G90">
+        <v>180</v>
+      </c>
+      <c r="H90">
+        <v>62</v>
+      </c>
+      <c r="I90">
+        <v>242</v>
+      </c>
+      <c r="J90">
+        <v>239</v>
+      </c>
+      <c r="K90">
+        <v>239</v>
+      </c>
+      <c r="L90">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>22837</v>
+      </c>
+      <c r="B91">
+        <v>228.37</v>
+      </c>
+      <c r="C91">
+        <v>239</v>
+      </c>
+      <c r="D91">
+        <v>239</v>
+      </c>
+      <c r="E91">
+        <v>1715.548585858586</v>
+      </c>
+      <c r="F91">
+        <v>41.41918137600724</v>
+      </c>
+      <c r="G91">
+        <v>236</v>
+      </c>
+      <c r="H91">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>249</v>
+      </c>
+      <c r="J91">
+        <v>239</v>
+      </c>
+      <c r="K91">
+        <v>239</v>
+      </c>
+      <c r="L91">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>23904</v>
+      </c>
+      <c r="B92">
+        <v>239.04</v>
+      </c>
+      <c r="C92">
+        <v>239</v>
+      </c>
+      <c r="D92">
+        <v>239</v>
+      </c>
+      <c r="E92">
+        <v>7.614545454545479</v>
+      </c>
+      <c r="F92">
+        <v>2.759446584832814</v>
+      </c>
+      <c r="G92">
+        <v>21</v>
+      </c>
+      <c r="H92">
+        <v>227</v>
+      </c>
+      <c r="I92">
+        <v>248</v>
+      </c>
+      <c r="J92">
+        <v>239</v>
+      </c>
+      <c r="K92">
+        <v>239</v>
+      </c>
+      <c r="L92">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>23879</v>
+      </c>
+      <c r="B93">
+        <v>238.79</v>
+      </c>
+      <c r="C93">
+        <v>239</v>
+      </c>
+      <c r="D93">
+        <v>239</v>
+      </c>
+      <c r="E93">
+        <v>6.632222222222204</v>
+      </c>
+      <c r="F93">
+        <v>2.575310121562489</v>
+      </c>
+      <c r="G93">
+        <v>19</v>
+      </c>
+      <c r="H93">
+        <v>231</v>
+      </c>
+      <c r="I93">
+        <v>250</v>
+      </c>
+      <c r="J93">
+        <v>239</v>
+      </c>
+      <c r="K93">
+        <v>239</v>
+      </c>
+      <c r="L93">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>23900</v>
+      </c>
+      <c r="B94">
+        <v>239</v>
+      </c>
+      <c r="C94">
+        <v>239</v>
+      </c>
+      <c r="D94">
+        <v>239</v>
+      </c>
+      <c r="E94">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F94">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G94">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>239</v>
-      </c>
-      <c r="I5">
-        <v>239</v>
-      </c>
-      <c r="J5">
-        <v>239</v>
-      </c>
-      <c r="K5">
-        <v>239</v>
-      </c>
-      <c r="L5">
+      <c r="H94">
+        <v>239</v>
+      </c>
+      <c r="I94">
+        <v>239</v>
+      </c>
+      <c r="J94">
+        <v>239</v>
+      </c>
+      <c r="K94">
+        <v>239</v>
+      </c>
+      <c r="L94">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>23900</v>
+      </c>
+      <c r="B95">
+        <v>239</v>
+      </c>
+      <c r="C95">
+        <v>239</v>
+      </c>
+      <c r="D95">
+        <v>239</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>239</v>
+      </c>
+      <c r="I95">
+        <v>239</v>
+      </c>
+      <c r="J95">
+        <v>239</v>
+      </c>
+      <c r="K95">
+        <v>239</v>
+      </c>
+      <c r="L95">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>23900</v>
+      </c>
+      <c r="B96">
+        <v>239</v>
+      </c>
+      <c r="C96">
+        <v>239</v>
+      </c>
+      <c r="D96">
+        <v>239</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>239</v>
+      </c>
+      <c r="I96">
+        <v>239</v>
+      </c>
+      <c r="J96">
+        <v>239</v>
+      </c>
+      <c r="K96">
+        <v>239</v>
+      </c>
+      <c r="L96">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>23900</v>
+      </c>
+      <c r="B97">
+        <v>239</v>
+      </c>
+      <c r="C97">
+        <v>239</v>
+      </c>
+      <c r="D97">
+        <v>239</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>239</v>
+      </c>
+      <c r="I97">
+        <v>239</v>
+      </c>
+      <c r="J97">
+        <v>239</v>
+      </c>
+      <c r="K97">
+        <v>239</v>
+      </c>
+      <c r="L97">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>23900</v>
+      </c>
+      <c r="B98">
+        <v>239</v>
+      </c>
+      <c r="C98">
+        <v>239</v>
+      </c>
+      <c r="D98">
+        <v>239</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>239</v>
+      </c>
+      <c r="I98">
+        <v>239</v>
+      </c>
+      <c r="J98">
+        <v>239</v>
+      </c>
+      <c r="K98">
+        <v>239</v>
+      </c>
+      <c r="L98">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>23900</v>
+      </c>
+      <c r="B99">
+        <v>239</v>
+      </c>
+      <c r="C99">
+        <v>239</v>
+      </c>
+      <c r="D99">
+        <v>239</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>239</v>
+      </c>
+      <c r="I99">
+        <v>239</v>
+      </c>
+      <c r="J99">
+        <v>239</v>
+      </c>
+      <c r="K99">
+        <v>239</v>
+      </c>
+      <c r="L99">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>23900</v>
+      </c>
+      <c r="B100">
+        <v>239</v>
+      </c>
+      <c r="C100">
+        <v>239</v>
+      </c>
+      <c r="D100">
+        <v>239</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>239</v>
+      </c>
+      <c r="I100">
+        <v>239</v>
+      </c>
+      <c r="J100">
+        <v>239</v>
+      </c>
+      <c r="K100">
+        <v>239</v>
+      </c>
+      <c r="L100">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>23900</v>
+      </c>
+      <c r="B101">
+        <v>239</v>
+      </c>
+      <c r="C101">
+        <v>239</v>
+      </c>
+      <c r="D101">
+        <v>239</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>239</v>
+      </c>
+      <c r="I101">
+        <v>239</v>
+      </c>
+      <c r="J101">
+        <v>239</v>
+      </c>
+      <c r="K101">
+        <v>239</v>
+      </c>
+      <c r="L101">
         <v>239</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga8_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga8_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>23882</v>
+        <v>47775</v>
       </c>
       <c r="B2">
-        <v>238.82</v>
+        <v>238.875</v>
       </c>
       <c r="C2">
         <v>239</v>
@@ -465,19 +465,19 @@
         <v>239</v>
       </c>
       <c r="E2">
-        <v>5.825858585858606</v>
+        <v>5.939070351758794</v>
       </c>
       <c r="F2">
-        <v>2.413681541931041</v>
+        <v>2.437020794281163</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J2">
         <v>239</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>23836</v>
+        <v>47829</v>
       </c>
       <c r="B3">
-        <v>238.36</v>
+        <v>239.145</v>
       </c>
       <c r="C3">
         <v>239</v>
@@ -503,19 +503,19 @@
         <v>239</v>
       </c>
       <c r="E3">
-        <v>22.91959595959595</v>
+        <v>1.642185929648244</v>
       </c>
       <c r="F3">
-        <v>4.787441483673294</v>
+        <v>1.281478025425424</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I3">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J3">
         <v>239</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>23225</v>
+        <v>47778</v>
       </c>
       <c r="B4">
-        <v>232.25</v>
+        <v>238.89</v>
       </c>
       <c r="C4">
         <v>239</v>
@@ -541,19 +541,19 @@
         <v>239</v>
       </c>
       <c r="E4">
-        <v>1020.25</v>
+        <v>3.384824120603029</v>
       </c>
       <c r="F4">
-        <v>31.94135250736888</v>
+        <v>1.839789151126571</v>
       </c>
       <c r="G4">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I4">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J4">
         <v>239</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>23195</v>
+        <v>47534</v>
       </c>
       <c r="B5">
-        <v>231.95</v>
+        <v>237.67</v>
       </c>
       <c r="C5">
         <v>239</v>
@@ -579,19 +579,19 @@
         <v>239</v>
       </c>
       <c r="E5">
-        <v>802.5126262626259</v>
+        <v>69.26743718593004</v>
       </c>
       <c r="F5">
-        <v>28.32865380251285</v>
+        <v>8.32270612156467</v>
       </c>
       <c r="G5">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="I5">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="J5">
         <v>239</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>23520</v>
+        <v>46732</v>
       </c>
       <c r="B6">
-        <v>235.2</v>
+        <v>233.66</v>
       </c>
       <c r="C6">
         <v>239</v>
@@ -617,19 +617,19 @@
         <v>239</v>
       </c>
       <c r="E6">
-        <v>309.2525252525246</v>
+        <v>700.9591959799054</v>
       </c>
       <c r="F6">
-        <v>17.58557719418173</v>
+        <v>26.47563400524916</v>
       </c>
       <c r="G6">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="H6">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J6">
         <v>239</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>23510</v>
+        <v>46303</v>
       </c>
       <c r="B7">
-        <v>235.1</v>
+        <v>231.515</v>
       </c>
       <c r="C7">
         <v>239</v>
@@ -655,19 +655,19 @@
         <v>239</v>
       </c>
       <c r="E7">
-        <v>383.4242424242422</v>
+        <v>1054.110326633162</v>
       </c>
       <c r="F7">
-        <v>19.581221678543</v>
+        <v>32.46706526055538</v>
       </c>
       <c r="G7">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="H7">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I7">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J7">
         <v>239</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>23469</v>
+        <v>46230</v>
       </c>
       <c r="B8">
-        <v>234.69</v>
+        <v>231.15</v>
       </c>
       <c r="C8">
         <v>239</v>
@@ -693,19 +693,19 @@
         <v>239</v>
       </c>
       <c r="E8">
-        <v>540.8827272727267</v>
+        <v>1026.520100502511</v>
       </c>
       <c r="F8">
-        <v>23.25688558841718</v>
+        <v>32.03935237333163</v>
       </c>
       <c r="G8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J8">
         <v>239</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>23496</v>
+        <v>46508</v>
       </c>
       <c r="B9">
-        <v>234.96</v>
+        <v>232.54</v>
       </c>
       <c r="C9">
         <v>239</v>
@@ -731,19 +731,19 @@
         <v>239</v>
       </c>
       <c r="E9">
-        <v>545.5135353535367</v>
+        <v>773.3250251256278</v>
       </c>
       <c r="F9">
-        <v>23.35623118898973</v>
+        <v>27.80872210522497</v>
       </c>
       <c r="G9">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="H9">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I9">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J9">
         <v>239</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>23517</v>
+        <v>46905</v>
       </c>
       <c r="B10">
-        <v>235.17</v>
+        <v>234.525</v>
       </c>
       <c r="C10">
         <v>239</v>
@@ -769,19 +769,19 @@
         <v>239</v>
       </c>
       <c r="E10">
-        <v>499.5566666666656</v>
+        <v>435.7883165829123</v>
       </c>
       <c r="F10">
-        <v>22.3507643418892</v>
+        <v>20.87554350389259</v>
       </c>
       <c r="G10">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I10">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J10">
         <v>239</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>23505</v>
+        <v>47037</v>
       </c>
       <c r="B11">
-        <v>235.05</v>
+        <v>235.185</v>
       </c>
       <c r="C11">
         <v>239</v>
@@ -807,19 +807,19 @@
         <v>239</v>
       </c>
       <c r="E11">
-        <v>581.8661616161618</v>
+        <v>418.3022864321608</v>
       </c>
       <c r="F11">
-        <v>24.12190211438894</v>
+        <v>20.45243962054798</v>
       </c>
       <c r="G11">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="J11">
         <v>239</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>23538</v>
+        <v>47044</v>
       </c>
       <c r="B12">
-        <v>235.38</v>
+        <v>235.22</v>
       </c>
       <c r="C12">
         <v>239</v>
@@ -845,19 +845,19 @@
         <v>239</v>
       </c>
       <c r="E12">
-        <v>420.2379797979785</v>
+        <v>468.323216080404</v>
       </c>
       <c r="F12">
-        <v>20.49970682224452</v>
+        <v>21.64077669771591</v>
       </c>
       <c r="G12">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I12">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J12">
         <v>239</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>23565</v>
+        <v>47009</v>
       </c>
       <c r="B13">
-        <v>235.65</v>
+        <v>235.045</v>
       </c>
       <c r="C13">
         <v>239</v>
@@ -883,19 +883,19 @@
         <v>239</v>
       </c>
       <c r="E13">
-        <v>312.5328282828282</v>
+        <v>517.5105276381886</v>
       </c>
       <c r="F13">
-        <v>17.67859802933559</v>
+        <v>22.74885772161294</v>
       </c>
       <c r="G13">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="H13">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I13">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J13">
         <v>239</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>23514</v>
+        <v>47000</v>
       </c>
       <c r="B14">
-        <v>235.14</v>
+        <v>235</v>
       </c>
       <c r="C14">
         <v>239</v>
@@ -921,22 +921,22 @@
         <v>239</v>
       </c>
       <c r="E14">
-        <v>475.0105050505043</v>
+        <v>471.1356783919598</v>
       </c>
       <c r="F14">
-        <v>21.79473571875797</v>
+        <v>21.70566005427985</v>
       </c>
       <c r="G14">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I14">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J14">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K14">
         <v>239</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>22926</v>
+        <v>47003</v>
       </c>
       <c r="B15">
-        <v>229.26</v>
+        <v>235.015</v>
       </c>
       <c r="C15">
         <v>239</v>
@@ -959,22 +959,22 @@
         <v>239</v>
       </c>
       <c r="E15">
-        <v>1052.214545454545</v>
+        <v>457.5826884422113</v>
       </c>
       <c r="F15">
-        <v>32.43785667171222</v>
+        <v>21.3911824928453</v>
       </c>
       <c r="G15">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I15">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J15">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K15">
         <v>239</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>21490</v>
+        <v>47015</v>
       </c>
       <c r="B16">
-        <v>214.9</v>
+        <v>235.075</v>
       </c>
       <c r="C16">
         <v>239</v>
@@ -997,10 +997,10 @@
         <v>239</v>
       </c>
       <c r="E16">
-        <v>2638.131313131312</v>
+        <v>473.5069095477385</v>
       </c>
       <c r="F16">
-        <v>51.36274246115867</v>
+        <v>21.76021391318887</v>
       </c>
       <c r="G16">
         <v>211</v>
@@ -1012,7 +1012,7 @@
         <v>252</v>
       </c>
       <c r="J16">
-        <v>228.25</v>
+        <v>239</v>
       </c>
       <c r="K16">
         <v>239</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>20301</v>
+        <v>47036</v>
       </c>
       <c r="B17">
-        <v>203.01</v>
+        <v>235.18</v>
       </c>
       <c r="C17">
         <v>239</v>
@@ -1035,22 +1035,22 @@
         <v>239</v>
       </c>
       <c r="E17">
-        <v>3119.828181818174</v>
+        <v>478.1985929648217</v>
       </c>
       <c r="F17">
-        <v>55.85542213445508</v>
+        <v>21.86775235283274</v>
       </c>
       <c r="G17">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J17">
-        <v>155.25</v>
+        <v>239</v>
       </c>
       <c r="K17">
         <v>239</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>20588</v>
+        <v>47047</v>
       </c>
       <c r="B18">
-        <v>205.88</v>
+        <v>235.235</v>
       </c>
       <c r="C18">
         <v>239</v>
@@ -1073,22 +1073,22 @@
         <v>239</v>
       </c>
       <c r="E18">
-        <v>3455.601616161623</v>
+        <v>464.3615829145726</v>
       </c>
       <c r="F18">
-        <v>58.78436540579155</v>
+        <v>21.54905062675784</v>
       </c>
       <c r="G18">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H18">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I18">
         <v>253</v>
       </c>
       <c r="J18">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>239</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>20636</v>
+        <v>47044</v>
       </c>
       <c r="B19">
-        <v>206.36</v>
+        <v>235.22</v>
       </c>
       <c r="C19">
         <v>239</v>
@@ -1111,22 +1111,22 @@
         <v>239</v>
       </c>
       <c r="E19">
-        <v>3482.11151515151</v>
+        <v>460.9764824120618</v>
       </c>
       <c r="F19">
-        <v>59.00941886810537</v>
+        <v>21.47036288496452</v>
       </c>
       <c r="G19">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H19">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I19">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J19">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="K19">
         <v>239</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>20592</v>
+        <v>47031</v>
       </c>
       <c r="B20">
-        <v>205.92</v>
+        <v>235.155</v>
       </c>
       <c r="C20">
         <v>239</v>
@@ -1149,22 +1149,22 @@
         <v>239</v>
       </c>
       <c r="E20">
-        <v>3708.902626262622</v>
+        <v>463.4482160804021</v>
       </c>
       <c r="F20">
-        <v>60.90076047359854</v>
+        <v>21.52784745580482</v>
       </c>
       <c r="G20">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I20">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J20">
-        <v>205.5</v>
+        <v>239</v>
       </c>
       <c r="K20">
         <v>239</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>20650</v>
+        <v>47009</v>
       </c>
       <c r="B21">
-        <v>206.5</v>
+        <v>235.045</v>
       </c>
       <c r="C21">
         <v>239</v>
@@ -1187,22 +1187,22 @@
         <v>239</v>
       </c>
       <c r="E21">
-        <v>4127.50505050505</v>
+        <v>461.9929396984902</v>
       </c>
       <c r="F21">
-        <v>64.24566172517059</v>
+        <v>21.49402102210031</v>
       </c>
       <c r="G21">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I21">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J21">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="K21">
         <v>239</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>20889</v>
+        <v>46998</v>
       </c>
       <c r="B22">
-        <v>208.89</v>
+        <v>234.99</v>
       </c>
       <c r="C22">
         <v>239</v>
@@ -1225,22 +1225,22 @@
         <v>239</v>
       </c>
       <c r="E22">
-        <v>4195.997878787885</v>
+        <v>485.0853266331681</v>
       </c>
       <c r="F22">
-        <v>64.77652258949908</v>
+        <v>22.02465270176054</v>
       </c>
       <c r="G22">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J22">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K22">
         <v>239</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>20920</v>
+        <v>46935</v>
       </c>
       <c r="B23">
-        <v>209.2</v>
+        <v>234.675</v>
       </c>
       <c r="C23">
         <v>239</v>
@@ -1263,22 +1263,22 @@
         <v>239</v>
       </c>
       <c r="E23">
-        <v>4466.44444444444</v>
+        <v>470.4214824120609</v>
       </c>
       <c r="F23">
-        <v>66.83146298297262</v>
+        <v>21.68920197729877</v>
       </c>
       <c r="G23">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I23">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J23">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K23">
         <v>239</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>21213</v>
+        <v>46939</v>
       </c>
       <c r="B24">
-        <v>212.13</v>
+        <v>234.695</v>
       </c>
       <c r="C24">
         <v>239</v>
@@ -1301,36 +1301,36 @@
         <v>239</v>
       </c>
       <c r="E24">
-        <v>4087.528383838391</v>
+        <v>443.469321608039</v>
       </c>
       <c r="F24">
-        <v>63.93378124151887</v>
+        <v>21.05871129979323</v>
       </c>
       <c r="G24">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I24">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J24">
-        <v>235.75</v>
+        <v>236</v>
       </c>
       <c r="K24">
         <v>239</v>
       </c>
       <c r="L24">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>21320</v>
+        <v>47206</v>
       </c>
       <c r="B25">
-        <v>213.2</v>
+        <v>236.03</v>
       </c>
       <c r="C25">
         <v>239</v>
@@ -1339,22 +1339,22 @@
         <v>239</v>
       </c>
       <c r="E25">
-        <v>3715.555555555558</v>
+        <v>435.1448241206044</v>
       </c>
       <c r="F25">
-        <v>60.95535707019981</v>
+        <v>20.86012521823885</v>
       </c>
       <c r="G25">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I25">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J25">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K25">
         <v>239</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>21061</v>
+        <v>47094</v>
       </c>
       <c r="B26">
-        <v>210.61</v>
+        <v>235.47</v>
       </c>
       <c r="C26">
         <v>239</v>
@@ -1377,22 +1377,22 @@
         <v>239</v>
       </c>
       <c r="E26">
-        <v>3510.139292929287</v>
+        <v>413.9387939698508</v>
       </c>
       <c r="F26">
-        <v>59.24642852467385</v>
+        <v>20.34548583764592</v>
       </c>
       <c r="G26">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I26">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J26">
-        <v>207.25</v>
+        <v>239</v>
       </c>
       <c r="K26">
         <v>239</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>20698</v>
+        <v>46874</v>
       </c>
       <c r="B27">
-        <v>206.98</v>
+        <v>234.37</v>
       </c>
       <c r="C27">
         <v>239</v>
@@ -1415,22 +1415,22 @@
         <v>239</v>
       </c>
       <c r="E27">
-        <v>4028.646060606057</v>
+        <v>421.4704522613067</v>
       </c>
       <c r="F27">
-        <v>63.47161618082571</v>
+        <v>20.52974554789481</v>
       </c>
       <c r="G27">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>189</v>
+        <v>236.75</v>
       </c>
       <c r="K27">
         <v>239</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>20558</v>
+        <v>46464</v>
       </c>
       <c r="B28">
-        <v>205.58</v>
+        <v>232.32</v>
       </c>
       <c r="C28">
         <v>239</v>
@@ -1453,22 +1453,22 @@
         <v>239</v>
       </c>
       <c r="E28">
-        <v>4543.761212121219</v>
+        <v>535.0729648241191</v>
       </c>
       <c r="F28">
-        <v>67.40742698042419</v>
+        <v>23.13164423088249</v>
       </c>
       <c r="G28">
+        <v>177</v>
+      </c>
+      <c r="H28">
+        <v>77</v>
+      </c>
+      <c r="I28">
+        <v>254</v>
+      </c>
+      <c r="J28">
         <v>236</v>
-      </c>
-      <c r="H28">
-        <v>19</v>
-      </c>
-      <c r="I28">
-        <v>255</v>
-      </c>
-      <c r="J28">
-        <v>187.25</v>
       </c>
       <c r="K28">
         <v>239</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>20466</v>
+        <v>45215</v>
       </c>
       <c r="B29">
-        <v>204.66</v>
+        <v>226.075</v>
       </c>
       <c r="C29">
         <v>239</v>
@@ -1491,22 +1491,22 @@
         <v>239</v>
       </c>
       <c r="E29">
-        <v>4918.267070707075</v>
+        <v>1535.878768844216</v>
       </c>
       <c r="F29">
-        <v>70.13035769698509</v>
+        <v>39.19028921613383</v>
       </c>
       <c r="G29">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I29">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J29">
-        <v>216.5</v>
+        <v>236</v>
       </c>
       <c r="K29">
         <v>239</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>20787</v>
+        <v>43742</v>
       </c>
       <c r="B30">
-        <v>207.87</v>
+        <v>218.71</v>
       </c>
       <c r="C30">
         <v>239</v>
@@ -1529,22 +1529,22 @@
         <v>239</v>
       </c>
       <c r="E30">
-        <v>4182.41727272727</v>
+        <v>2050.407939698495</v>
       </c>
       <c r="F30">
-        <v>64.6716110262244</v>
+        <v>45.28143040693939</v>
       </c>
       <c r="G30">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I30">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J30">
-        <v>204.75</v>
+        <v>230</v>
       </c>
       <c r="K30">
         <v>239</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>21691</v>
+        <v>42076</v>
       </c>
       <c r="B31">
-        <v>216.91</v>
+        <v>210.38</v>
       </c>
       <c r="C31">
         <v>239</v>
@@ -1567,36 +1567,36 @@
         <v>239</v>
       </c>
       <c r="E31">
-        <v>2472.405959595959</v>
+        <v>2704.216683417083</v>
       </c>
       <c r="F31">
-        <v>49.72329393348714</v>
+        <v>52.00208345265681</v>
       </c>
       <c r="G31">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I31">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J31">
-        <v>198.5</v>
+        <v>214.75</v>
       </c>
       <c r="K31">
         <v>239</v>
       </c>
       <c r="L31">
-        <v>240.25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>21858</v>
+        <v>40438</v>
       </c>
       <c r="B32">
-        <v>218.58</v>
+        <v>202.19</v>
       </c>
       <c r="C32">
         <v>239</v>
@@ -1605,36 +1605,36 @@
         <v>239</v>
       </c>
       <c r="E32">
-        <v>2228.589494949493</v>
+        <v>3831.250150753761</v>
       </c>
       <c r="F32">
-        <v>47.20793889749363</v>
+        <v>61.89709323347714</v>
       </c>
       <c r="G32">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H32">
         <v>41</v>
       </c>
       <c r="I32">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J32">
-        <v>198</v>
+        <v>170.25</v>
       </c>
       <c r="K32">
         <v>239</v>
       </c>
       <c r="L32">
-        <v>240.25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>22140</v>
+        <v>40721</v>
       </c>
       <c r="B33">
-        <v>221.4</v>
+        <v>203.605</v>
       </c>
       <c r="C33">
         <v>239</v>
@@ -1643,22 +1643,22 @@
         <v>239</v>
       </c>
       <c r="E33">
-        <v>2248.767676767679</v>
+        <v>3046.903492462324</v>
       </c>
       <c r="F33">
-        <v>47.42117329598329</v>
+        <v>55.19876350483156</v>
       </c>
       <c r="G33">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I33">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J33">
-        <v>227.5</v>
+        <v>170</v>
       </c>
       <c r="K33">
         <v>239</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>22308</v>
+        <v>40983</v>
       </c>
       <c r="B34">
-        <v>223.08</v>
+        <v>204.915</v>
       </c>
       <c r="C34">
         <v>239</v>
@@ -1681,36 +1681,36 @@
         <v>239</v>
       </c>
       <c r="E34">
-        <v>2167.023838383835</v>
+        <v>2986.771633165824</v>
       </c>
       <c r="F34">
-        <v>46.55130329414887</v>
+        <v>54.65136442181315</v>
       </c>
       <c r="G34">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H34">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J34">
-        <v>238.75</v>
+        <v>176</v>
       </c>
       <c r="K34">
         <v>239</v>
       </c>
       <c r="L34">
-        <v>245.25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>21824</v>
+        <v>41156</v>
       </c>
       <c r="B35">
-        <v>218.24</v>
+        <v>205.78</v>
       </c>
       <c r="C35">
         <v>239</v>
@@ -1719,36 +1719,36 @@
         <v>239</v>
       </c>
       <c r="E35">
-        <v>3270.628686868684</v>
+        <v>3437.961407035173</v>
       </c>
       <c r="F35">
-        <v>57.18941061830139</v>
+        <v>58.63413175817625</v>
       </c>
       <c r="G35">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H35">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I35">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J35">
-        <v>238</v>
+        <v>199.5</v>
       </c>
       <c r="K35">
         <v>239</v>
       </c>
       <c r="L35">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>22997</v>
+        <v>41196</v>
       </c>
       <c r="B36">
-        <v>229.97</v>
+        <v>205.98</v>
       </c>
       <c r="C36">
         <v>239</v>
@@ -1757,36 +1757,36 @@
         <v>239</v>
       </c>
       <c r="E36">
-        <v>1173.988989898992</v>
+        <v>3592.351356783914</v>
       </c>
       <c r="F36">
-        <v>34.26352273043435</v>
+        <v>59.93622741534467</v>
       </c>
       <c r="G36">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="H36">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I36">
         <v>255</v>
       </c>
       <c r="J36">
-        <v>239</v>
+        <v>204.75</v>
       </c>
       <c r="K36">
         <v>239</v>
       </c>
       <c r="L36">
-        <v>248.5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>23749</v>
+        <v>41119</v>
       </c>
       <c r="B37">
-        <v>237.49</v>
+        <v>205.595</v>
       </c>
       <c r="C37">
         <v>239</v>
@@ -1795,36 +1795,36 @@
         <v>239</v>
       </c>
       <c r="E37">
-        <v>850.7170707070717</v>
+        <v>3777.006005025136</v>
       </c>
       <c r="F37">
-        <v>29.16705454287546</v>
+        <v>61.45735110647982</v>
       </c>
       <c r="G37">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>239</v>
+        <v>197.5</v>
       </c>
       <c r="K37">
         <v>239</v>
       </c>
       <c r="L37">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>23739</v>
+        <v>41095</v>
       </c>
       <c r="B38">
-        <v>237.39</v>
+        <v>205.475</v>
       </c>
       <c r="C38">
         <v>239</v>
@@ -1833,74 +1833,74 @@
         <v>239</v>
       </c>
       <c r="E38">
-        <v>770.9069696969683</v>
+        <v>3776.712939698501</v>
       </c>
       <c r="F38">
-        <v>27.76521150103072</v>
+        <v>61.45496676183708</v>
       </c>
       <c r="G38">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="H38">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>239</v>
+        <v>193.25</v>
       </c>
       <c r="K38">
         <v>239</v>
       </c>
       <c r="L38">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>23772</v>
+        <v>41081</v>
       </c>
       <c r="B39">
-        <v>237.72</v>
+        <v>205.405</v>
       </c>
       <c r="C39">
-        <v>239.5</v>
+        <v>239</v>
       </c>
       <c r="D39">
         <v>239</v>
       </c>
       <c r="E39">
-        <v>923.456161616161</v>
+        <v>3976.051231155787</v>
       </c>
       <c r="F39">
-        <v>30.38842150583279</v>
+        <v>63.05593731882658</v>
       </c>
       <c r="G39">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>239</v>
+        <v>198.5</v>
       </c>
       <c r="K39">
-        <v>239.5</v>
+        <v>239</v>
       </c>
       <c r="L39">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>23787</v>
+        <v>41049</v>
       </c>
       <c r="B40">
-        <v>237.87</v>
+        <v>205.245</v>
       </c>
       <c r="C40">
         <v>239</v>
@@ -1909,36 +1909,36 @@
         <v>239</v>
       </c>
       <c r="E40">
-        <v>913.326363636363</v>
+        <v>4369.773844221103</v>
       </c>
       <c r="F40">
-        <v>30.22128990689118</v>
+        <v>66.10426494728689</v>
       </c>
       <c r="G40">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="H40">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>239</v>
+        <v>213.75</v>
       </c>
       <c r="K40">
         <v>239</v>
       </c>
       <c r="L40">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>23783</v>
+        <v>41314</v>
       </c>
       <c r="B41">
-        <v>237.83</v>
+        <v>206.57</v>
       </c>
       <c r="C41">
         <v>239</v>
@@ -1947,36 +1947,36 @@
         <v>239</v>
       </c>
       <c r="E41">
-        <v>919.2536363636358</v>
+        <v>4279.974974874373</v>
       </c>
       <c r="F41">
-        <v>30.31919583965966</v>
+        <v>65.42151767480156</v>
       </c>
       <c r="G41">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="H41">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>239</v>
+        <v>223.25</v>
       </c>
       <c r="K41">
         <v>239</v>
       </c>
       <c r="L41">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>23751</v>
+        <v>41628</v>
       </c>
       <c r="B42">
-        <v>237.51</v>
+        <v>208.14</v>
       </c>
       <c r="C42">
         <v>239</v>
@@ -1985,36 +1985,36 @@
         <v>239</v>
       </c>
       <c r="E42">
-        <v>929.6261616161626</v>
+        <v>4214.472763819083</v>
       </c>
       <c r="F42">
-        <v>30.48977142610555</v>
+        <v>64.91897075446501</v>
       </c>
       <c r="G42">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K42">
         <v>239</v>
       </c>
       <c r="L42">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>23799</v>
+        <v>41866</v>
       </c>
       <c r="B43">
-        <v>237.99</v>
+        <v>209.33</v>
       </c>
       <c r="C43">
         <v>239</v>
@@ -2023,36 +2023,36 @@
         <v>239</v>
       </c>
       <c r="E43">
-        <v>916.2928282828275</v>
+        <v>4250.473467336672</v>
       </c>
       <c r="F43">
-        <v>30.2703291736781</v>
+        <v>65.19565527960181</v>
       </c>
       <c r="G43">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="H43">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>255</v>
       </c>
       <c r="J43">
-        <v>239</v>
+        <v>235.5</v>
       </c>
       <c r="K43">
         <v>239</v>
       </c>
       <c r="L43">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>23770</v>
+        <v>41849</v>
       </c>
       <c r="B44">
-        <v>237.7</v>
+        <v>209.245</v>
       </c>
       <c r="C44">
         <v>239</v>
@@ -2061,36 +2061,36 @@
         <v>239</v>
       </c>
       <c r="E44">
-        <v>845.7676767676772</v>
+        <v>4624.849221105515</v>
       </c>
       <c r="F44">
-        <v>29.08208515164752</v>
+        <v>68.00624398616289</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H44">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>239</v>
+        <v>232.25</v>
       </c>
       <c r="K44">
         <v>239</v>
       </c>
       <c r="L44">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>23879</v>
+        <v>42002</v>
       </c>
       <c r="B45">
-        <v>238.79</v>
+        <v>210.01</v>
       </c>
       <c r="C45">
         <v>239</v>
@@ -2099,36 +2099,36 @@
         <v>239</v>
       </c>
       <c r="E45">
-        <v>745.1978787878787</v>
+        <v>4502.060201005022</v>
       </c>
       <c r="F45">
-        <v>27.29831274617313</v>
+        <v>67.09739339948328</v>
       </c>
       <c r="G45">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="H45">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>239</v>
+        <v>236.75</v>
       </c>
       <c r="K45">
         <v>239</v>
       </c>
       <c r="L45">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>23905</v>
+        <v>42277</v>
       </c>
       <c r="B46">
-        <v>239.05</v>
+        <v>211.385</v>
       </c>
       <c r="C46">
         <v>239</v>
@@ -2137,36 +2137,36 @@
         <v>239</v>
       </c>
       <c r="E46">
-        <v>723.5429292929301</v>
+        <v>4232.529422110542</v>
       </c>
       <c r="F46">
-        <v>26.89875330369291</v>
+        <v>65.05789285021874</v>
       </c>
       <c r="G46">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="H46">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K46">
         <v>239</v>
       </c>
       <c r="L46">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>23914</v>
+        <v>42562</v>
       </c>
       <c r="B47">
-        <v>239.14</v>
+        <v>212.81</v>
       </c>
       <c r="C47">
         <v>239</v>
@@ -2175,74 +2175,74 @@
         <v>239</v>
       </c>
       <c r="E47">
-        <v>702.9903030303028</v>
+        <v>3875.843115577899</v>
       </c>
       <c r="F47">
-        <v>26.51396430242567</v>
+        <v>62.25626968890683</v>
       </c>
       <c r="G47">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="H47">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K47">
         <v>239</v>
       </c>
       <c r="L47">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>23913</v>
+        <v>42665</v>
       </c>
       <c r="B48">
-        <v>239.13</v>
+        <v>213.325</v>
       </c>
       <c r="C48">
-        <v>239.5</v>
+        <v>239</v>
       </c>
       <c r="D48">
         <v>239</v>
       </c>
       <c r="E48">
-        <v>708.4980808080808</v>
+        <v>3712.853643216067</v>
       </c>
       <c r="F48">
-        <v>26.617627257291</v>
+        <v>60.93318999704567</v>
       </c>
       <c r="G48">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="H48">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>239</v>
+        <v>237.75</v>
       </c>
       <c r="K48">
-        <v>239.5</v>
+        <v>239</v>
       </c>
       <c r="L48">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>23892</v>
+        <v>42546</v>
       </c>
       <c r="B49">
-        <v>238.92</v>
+        <v>212.73</v>
       </c>
       <c r="C49">
         <v>239</v>
@@ -2251,36 +2251,36 @@
         <v>239</v>
       </c>
       <c r="E49">
-        <v>736.8218181818175</v>
+        <v>3597.866432160791</v>
       </c>
       <c r="F49">
-        <v>27.14446201680589</v>
+        <v>59.98221763290176</v>
       </c>
       <c r="G49">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="H49">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K49">
         <v>239</v>
       </c>
       <c r="L49">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>23862</v>
+        <v>42274</v>
       </c>
       <c r="B50">
-        <v>238.62</v>
+        <v>211.37</v>
       </c>
       <c r="C50">
         <v>239</v>
@@ -2289,36 +2289,36 @@
         <v>239</v>
       </c>
       <c r="E50">
-        <v>772.7834343434354</v>
+        <v>3526.364924623103</v>
       </c>
       <c r="F50">
-        <v>27.79898261345971</v>
+        <v>59.38320406161243</v>
       </c>
       <c r="G50">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="H50">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>239</v>
+        <v>218.75</v>
       </c>
       <c r="K50">
         <v>239</v>
       </c>
       <c r="L50">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>23828</v>
+        <v>41934</v>
       </c>
       <c r="B51">
-        <v>238.28</v>
+        <v>209.67</v>
       </c>
       <c r="C51">
         <v>239</v>
@@ -2327,36 +2327,36 @@
         <v>239</v>
       </c>
       <c r="E51">
-        <v>837.13292929293</v>
+        <v>3538.08150753769</v>
       </c>
       <c r="F51">
-        <v>28.93324954603147</v>
+        <v>59.48177458295683</v>
       </c>
       <c r="G51">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="H51">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>239</v>
+        <v>195.75</v>
       </c>
       <c r="K51">
         <v>239</v>
       </c>
       <c r="L51">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>23827</v>
+        <v>41642</v>
       </c>
       <c r="B52">
-        <v>238.27</v>
+        <v>208.21</v>
       </c>
       <c r="C52">
         <v>239</v>
@@ -2365,36 +2365,36 @@
         <v>239</v>
       </c>
       <c r="E52">
-        <v>873.6132323232334</v>
+        <v>3610.779798994984</v>
       </c>
       <c r="F52">
-        <v>29.55694896844452</v>
+        <v>60.08976451106282</v>
       </c>
       <c r="G52">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>239</v>
+        <v>186.75</v>
       </c>
       <c r="K52">
         <v>239</v>
       </c>
       <c r="L52">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>23785</v>
+        <v>41520</v>
       </c>
       <c r="B53">
-        <v>237.85</v>
+        <v>207.6</v>
       </c>
       <c r="C53">
         <v>239</v>
@@ -2403,36 +2403,36 @@
         <v>239</v>
       </c>
       <c r="E53">
-        <v>986.9166666666646</v>
+        <v>3734.70351758793</v>
       </c>
       <c r="F53">
-        <v>31.41522985220169</v>
+        <v>61.11222068938364</v>
       </c>
       <c r="G53">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="H53">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>239</v>
+        <v>183.75</v>
       </c>
       <c r="K53">
         <v>239</v>
       </c>
       <c r="L53">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>23740</v>
+        <v>41381</v>
       </c>
       <c r="B54">
-        <v>237.4</v>
+        <v>206.905</v>
       </c>
       <c r="C54">
         <v>239</v>
@@ -2441,36 +2441,36 @@
         <v>239</v>
       </c>
       <c r="E54">
-        <v>1079.252525252526</v>
+        <v>4075.583894472361</v>
       </c>
       <c r="F54">
-        <v>32.85197901576898</v>
+        <v>63.84029992467423</v>
       </c>
       <c r="G54">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="H54">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>239</v>
+        <v>195.25</v>
       </c>
       <c r="K54">
         <v>239</v>
       </c>
       <c r="L54">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>23725</v>
+        <v>41197</v>
       </c>
       <c r="B55">
-        <v>237.25</v>
+        <v>205.985</v>
       </c>
       <c r="C55">
         <v>239</v>
@@ -2479,36 +2479,36 @@
         <v>239</v>
       </c>
       <c r="E55">
-        <v>1035.239898989899</v>
+        <v>4586.527412060292</v>
       </c>
       <c r="F55">
-        <v>32.17514411762438</v>
+        <v>67.72390576495343</v>
       </c>
       <c r="G55">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="H55">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>239</v>
+        <v>202.75</v>
       </c>
       <c r="K55">
         <v>239</v>
       </c>
       <c r="L55">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>23769</v>
+        <v>40965</v>
       </c>
       <c r="B56">
-        <v>237.69</v>
+        <v>204.825</v>
       </c>
       <c r="C56">
         <v>239</v>
@@ -2517,36 +2517,36 @@
         <v>239</v>
       </c>
       <c r="E56">
-        <v>810.5392929292942</v>
+        <v>4770.587311557795</v>
       </c>
       <c r="F56">
-        <v>28.4699717760537</v>
+        <v>69.06943833243322</v>
       </c>
       <c r="G56">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="H56">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="K56">
         <v>239</v>
       </c>
       <c r="L56">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>23782</v>
+        <v>40856</v>
       </c>
       <c r="B57">
-        <v>237.82</v>
+        <v>204.28</v>
       </c>
       <c r="C57">
         <v>239</v>
@@ -2555,36 +2555,36 @@
         <v>239</v>
       </c>
       <c r="E57">
-        <v>736.9975757575746</v>
+        <v>4810.634773869349</v>
       </c>
       <c r="F57">
-        <v>27.14769927190101</v>
+        <v>69.35873970790811</v>
       </c>
       <c r="G57">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="H57">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>239</v>
+        <v>198.25</v>
       </c>
       <c r="K57">
         <v>239</v>
       </c>
       <c r="L57">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>23766</v>
+        <v>41145</v>
       </c>
       <c r="B58">
-        <v>237.66</v>
+        <v>205.725</v>
       </c>
       <c r="C58">
         <v>239</v>
@@ -2593,36 +2593,36 @@
         <v>239</v>
       </c>
       <c r="E58">
-        <v>780.287272727272</v>
+        <v>4485.989321608035</v>
       </c>
       <c r="F58">
-        <v>27.93362262090744</v>
+        <v>66.97752848238008</v>
       </c>
       <c r="G58">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="H58">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>239</v>
+        <v>191.25</v>
       </c>
       <c r="K58">
         <v>239</v>
       </c>
       <c r="L58">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>23750</v>
+        <v>41945</v>
       </c>
       <c r="B59">
-        <v>237.5</v>
+        <v>209.725</v>
       </c>
       <c r="C59">
         <v>239</v>
@@ -2631,36 +2631,36 @@
         <v>239</v>
       </c>
       <c r="E59">
-        <v>743.2828282828283</v>
+        <v>3753.255653266335</v>
       </c>
       <c r="F59">
-        <v>27.26321382894593</v>
+        <v>61.26382010017279</v>
       </c>
       <c r="G59">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="H59">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>239</v>
+        <v>190.25</v>
       </c>
       <c r="K59">
         <v>239</v>
       </c>
       <c r="L59">
-        <v>255</v>
+        <v>239.25</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>23713</v>
+        <v>42998</v>
       </c>
       <c r="B60">
-        <v>237.13</v>
+        <v>214.99</v>
       </c>
       <c r="C60">
         <v>239</v>
@@ -2669,36 +2669,36 @@
         <v>239</v>
       </c>
       <c r="E60">
-        <v>811.9122222222213</v>
+        <v>2688.944623115579</v>
       </c>
       <c r="F60">
-        <v>28.49407345786526</v>
+        <v>51.85503469399649</v>
       </c>
       <c r="G60">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="H60">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>239</v>
+        <v>192.75</v>
       </c>
       <c r="K60">
         <v>239</v>
       </c>
       <c r="L60">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>23705</v>
+        <v>43504</v>
       </c>
       <c r="B61">
-        <v>237.05</v>
+        <v>217.52</v>
       </c>
       <c r="C61">
         <v>239</v>
@@ -2707,36 +2707,36 @@
         <v>239</v>
       </c>
       <c r="E61">
-        <v>955.3813131313142</v>
+        <v>2313.838793969845</v>
       </c>
       <c r="F61">
-        <v>30.90924316658876</v>
+        <v>48.10237825689957</v>
       </c>
       <c r="G61">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H61">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="K61">
         <v>239</v>
       </c>
       <c r="L61">
-        <v>255</v>
+        <v>239.25</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>23649</v>
+        <v>43686</v>
       </c>
       <c r="B62">
-        <v>236.49</v>
+        <v>218.43</v>
       </c>
       <c r="C62">
         <v>239</v>
@@ -2745,36 +2745,36 @@
         <v>239</v>
       </c>
       <c r="E62">
-        <v>1136.353434343433</v>
+        <v>2261.351859296482</v>
       </c>
       <c r="F62">
-        <v>33.70984180240888</v>
+        <v>47.5536734574363</v>
       </c>
       <c r="G62">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H62">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>239</v>
+        <v>192.75</v>
       </c>
       <c r="K62">
         <v>239</v>
       </c>
       <c r="L62">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>23633</v>
+        <v>43681</v>
       </c>
       <c r="B63">
-        <v>236.33</v>
+        <v>218.405</v>
       </c>
       <c r="C63">
         <v>239</v>
@@ -2783,36 +2783,36 @@
         <v>239</v>
       </c>
       <c r="E63">
-        <v>1021.374848484848</v>
+        <v>2392.603994974874</v>
       </c>
       <c r="F63">
-        <v>31.95895568514165</v>
+        <v>48.91425145062402</v>
       </c>
       <c r="G63">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H63">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="K63">
         <v>239</v>
       </c>
       <c r="L63">
-        <v>254.25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>23622</v>
+        <v>44093</v>
       </c>
       <c r="B64">
-        <v>236.22</v>
+        <v>220.465</v>
       </c>
       <c r="C64">
         <v>239</v>
@@ -2821,36 +2821,36 @@
         <v>239</v>
       </c>
       <c r="E64">
-        <v>1018.092525252526</v>
+        <v>2131.054045226131</v>
       </c>
       <c r="F64">
-        <v>31.90756219538758</v>
+        <v>46.1633409235741</v>
       </c>
       <c r="G64">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K64">
         <v>239</v>
       </c>
       <c r="L64">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>23615</v>
+        <v>44557</v>
       </c>
       <c r="B65">
-        <v>236.15</v>
+        <v>222.785</v>
       </c>
       <c r="C65">
         <v>239</v>
@@ -2859,36 +2859,36 @@
         <v>239</v>
       </c>
       <c r="E65">
-        <v>856.1489898989892</v>
+        <v>1938.54148241206</v>
       </c>
       <c r="F65">
-        <v>29.2600237508275</v>
+        <v>44.02887100996413</v>
       </c>
       <c r="G65">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="H65">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K65">
         <v>239</v>
       </c>
       <c r="L65">
-        <v>255</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>23609</v>
+        <v>44813</v>
       </c>
       <c r="B66">
-        <v>236.09</v>
+        <v>224.065</v>
       </c>
       <c r="C66">
         <v>239</v>
@@ -2897,36 +2897,36 @@
         <v>239</v>
       </c>
       <c r="E66">
-        <v>957.9615151515151</v>
+        <v>1869.930427135684</v>
       </c>
       <c r="F66">
-        <v>30.95095338033249</v>
+        <v>43.2426921818668</v>
       </c>
       <c r="G66">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H66">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K66">
         <v>239</v>
       </c>
       <c r="L66">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>23567</v>
+        <v>44559</v>
       </c>
       <c r="B67">
-        <v>235.67</v>
+        <v>222.795</v>
       </c>
       <c r="C67">
         <v>239</v>
@@ -2935,36 +2935,36 @@
         <v>239</v>
       </c>
       <c r="E67">
-        <v>1144.142525252526</v>
+        <v>2279.570829145735</v>
       </c>
       <c r="F67">
-        <v>33.82517590867084</v>
+        <v>47.74485133651308</v>
       </c>
       <c r="G67">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H67">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K67">
         <v>239</v>
       </c>
       <c r="L67">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>23580</v>
+        <v>43870</v>
       </c>
       <c r="B68">
-        <v>235.8</v>
+        <v>219.35</v>
       </c>
       <c r="C68">
         <v>239</v>
@@ -2973,36 +2973,36 @@
         <v>239</v>
       </c>
       <c r="E68">
-        <v>1032.505050505052</v>
+        <v>2834.339195979912</v>
       </c>
       <c r="F68">
-        <v>32.1326166146651</v>
+        <v>53.23851233815528</v>
       </c>
       <c r="G68">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H68">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K68">
         <v>239</v>
       </c>
       <c r="L68">
-        <v>254</v>
+        <v>247.25</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>23582</v>
+        <v>44100</v>
       </c>
       <c r="B69">
-        <v>235.82</v>
+        <v>220.5</v>
       </c>
       <c r="C69">
         <v>239</v>
@@ -3011,16 +3011,16 @@
         <v>239</v>
       </c>
       <c r="E69">
-        <v>861.74505050505</v>
+        <v>2745.899497487437</v>
       </c>
       <c r="F69">
-        <v>29.35549438359113</v>
+        <v>52.40133106598951</v>
       </c>
       <c r="G69">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="H69">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I69">
         <v>255</v>
@@ -3032,15 +3032,15 @@
         <v>239</v>
       </c>
       <c r="L69">
-        <v>254.25</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>23500</v>
+        <v>45148</v>
       </c>
       <c r="B70">
-        <v>235</v>
+        <v>225.74</v>
       </c>
       <c r="C70">
         <v>239</v>
@@ -3049,16 +3049,16 @@
         <v>239</v>
       </c>
       <c r="E70">
-        <v>1082.909090909091</v>
+        <v>1865.56020100503</v>
       </c>
       <c r="F70">
-        <v>32.90758409408219</v>
+        <v>43.19213123944024</v>
       </c>
       <c r="G70">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H70">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I70">
         <v>255</v>
@@ -3070,15 +3070,15 @@
         <v>239</v>
       </c>
       <c r="L70">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>23529</v>
+        <v>46782</v>
       </c>
       <c r="B71">
-        <v>235.29</v>
+        <v>233.91</v>
       </c>
       <c r="C71">
         <v>239</v>
@@ -3087,16 +3087,16 @@
         <v>239</v>
       </c>
       <c r="E71">
-        <v>1150.612020202021</v>
+        <v>861.1174874371851</v>
       </c>
       <c r="F71">
-        <v>33.9206724609348</v>
+        <v>29.34480341452614</v>
       </c>
       <c r="G71">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I71">
         <v>255</v>
@@ -3108,15 +3108,15 @@
         <v>239</v>
       </c>
       <c r="L71">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>23537</v>
+        <v>47305</v>
       </c>
       <c r="B72">
-        <v>235.37</v>
+        <v>236.525</v>
       </c>
       <c r="C72">
         <v>239</v>
@@ -3125,16 +3125,16 @@
         <v>239</v>
       </c>
       <c r="E72">
-        <v>907.5889898989909</v>
+        <v>770.9340452261274</v>
       </c>
       <c r="F72">
-        <v>30.12621765006339</v>
+        <v>27.76569907684889</v>
       </c>
       <c r="G72">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H72">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I72">
         <v>255</v>
@@ -3146,15 +3146,15 @@
         <v>239</v>
       </c>
       <c r="L72">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>23563</v>
+        <v>47458</v>
       </c>
       <c r="B73">
-        <v>235.63</v>
+        <v>237.29</v>
       </c>
       <c r="C73">
         <v>239</v>
@@ -3163,16 +3163,16 @@
         <v>239</v>
       </c>
       <c r="E73">
-        <v>810.3162626262622</v>
+        <v>773.4029145728651</v>
       </c>
       <c r="F73">
-        <v>28.46605456726067</v>
+        <v>27.81012251991827</v>
       </c>
       <c r="G73">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I73">
         <v>255</v>
@@ -3184,15 +3184,15 @@
         <v>239</v>
       </c>
       <c r="L73">
-        <v>253.25</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>23502</v>
+        <v>47439</v>
       </c>
       <c r="B74">
-        <v>235.02</v>
+        <v>237.195</v>
       </c>
       <c r="C74">
         <v>239</v>
@@ -3201,16 +3201,16 @@
         <v>239</v>
       </c>
       <c r="E74">
-        <v>1046.504646464647</v>
+        <v>743.6150502512536</v>
       </c>
       <c r="F74">
-        <v>32.34972405546371</v>
+        <v>27.26930600971087</v>
       </c>
       <c r="G74">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H74">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I74">
         <v>255</v>
@@ -3222,15 +3222,15 @@
         <v>239</v>
       </c>
       <c r="L74">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>23444</v>
+        <v>47519</v>
       </c>
       <c r="B75">
-        <v>234.44</v>
+        <v>237.595</v>
       </c>
       <c r="C75">
         <v>239</v>
@@ -3239,16 +3239,16 @@
         <v>239</v>
       </c>
       <c r="E75">
-        <v>953.1377777777791</v>
+        <v>713.5788693467345</v>
       </c>
       <c r="F75">
-        <v>30.87292953021755</v>
+        <v>26.71289706016055</v>
       </c>
       <c r="G75">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H75">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I75">
         <v>255</v>
@@ -3260,15 +3260,15 @@
         <v>239</v>
       </c>
       <c r="L75">
-        <v>253.25</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>23467</v>
+        <v>47505</v>
       </c>
       <c r="B76">
-        <v>234.67</v>
+        <v>237.525</v>
       </c>
       <c r="C76">
         <v>239</v>
@@ -3277,16 +3277,16 @@
         <v>239</v>
       </c>
       <c r="E76">
-        <v>861.8394949494964</v>
+        <v>730.5722361809054</v>
       </c>
       <c r="F76">
-        <v>29.35710297269634</v>
+        <v>27.02909980337683</v>
       </c>
       <c r="G76">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H76">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I76">
         <v>255</v>
@@ -3298,15 +3298,15 @@
         <v>239</v>
       </c>
       <c r="L76">
-        <v>254</v>
+        <v>250.25</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>23464</v>
+        <v>47500</v>
       </c>
       <c r="B77">
-        <v>234.64</v>
+        <v>237.5</v>
       </c>
       <c r="C77">
         <v>239</v>
@@ -3315,16 +3315,16 @@
         <v>239</v>
       </c>
       <c r="E77">
-        <v>887.8690909090925</v>
+        <v>751.5477386934673</v>
       </c>
       <c r="F77">
-        <v>29.7971322598181</v>
+        <v>27.41437102494725</v>
       </c>
       <c r="G77">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H77">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I77">
         <v>255</v>
@@ -3336,15 +3336,15 @@
         <v>239</v>
       </c>
       <c r="L77">
-        <v>252</v>
+        <v>250.25</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>23383</v>
+        <v>47545</v>
       </c>
       <c r="B78">
-        <v>233.83</v>
+        <v>237.725</v>
       </c>
       <c r="C78">
         <v>239</v>
@@ -3353,16 +3353,16 @@
         <v>239</v>
       </c>
       <c r="E78">
-        <v>876.2031313131323</v>
+        <v>778.6124371859274</v>
       </c>
       <c r="F78">
-        <v>29.60072856051236</v>
+        <v>27.90362767071564</v>
       </c>
       <c r="G78">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H78">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I78">
         <v>255</v>
@@ -3374,15 +3374,15 @@
         <v>239</v>
       </c>
       <c r="L78">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>23401</v>
+        <v>47556</v>
       </c>
       <c r="B79">
-        <v>234.01</v>
+        <v>237.78</v>
       </c>
       <c r="C79">
         <v>239</v>
@@ -3391,16 +3391,16 @@
         <v>239</v>
       </c>
       <c r="E79">
-        <v>858.2726262626257</v>
+        <v>791.1372864321615</v>
       </c>
       <c r="F79">
-        <v>29.29629031571448</v>
+        <v>28.12716278674693</v>
       </c>
       <c r="G79">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="H79">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I79">
         <v>255</v>
@@ -3412,15 +3412,15 @@
         <v>239</v>
       </c>
       <c r="L79">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>23264</v>
+        <v>47565</v>
       </c>
       <c r="B80">
-        <v>232.64</v>
+        <v>237.825</v>
       </c>
       <c r="C80">
         <v>239</v>
@@ -3429,16 +3429,16 @@
         <v>239</v>
       </c>
       <c r="E80">
-        <v>1070.717575757578</v>
+        <v>783.572236180903</v>
       </c>
       <c r="F80">
-        <v>32.72182109476149</v>
+        <v>27.99236031814579</v>
       </c>
       <c r="G80">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="H80">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I80">
         <v>255</v>
@@ -3450,15 +3450,15 @@
         <v>239</v>
       </c>
       <c r="L80">
-        <v>240.25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>23190</v>
+        <v>47563</v>
       </c>
       <c r="B81">
-        <v>231.9</v>
+        <v>237.815</v>
       </c>
       <c r="C81">
         <v>239</v>
@@ -3467,16 +3467,16 @@
         <v>239</v>
       </c>
       <c r="E81">
-        <v>1113.121212121213</v>
+        <v>766.1213819095483</v>
       </c>
       <c r="F81">
-        <v>33.36347122409797</v>
+        <v>27.67889777266335</v>
       </c>
       <c r="G81">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="H81">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I81">
         <v>255</v>
@@ -3488,15 +3488,15 @@
         <v>239</v>
       </c>
       <c r="L81">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>23164</v>
+        <v>47567</v>
       </c>
       <c r="B82">
-        <v>231.64</v>
+        <v>237.835</v>
       </c>
       <c r="C82">
         <v>239</v>
@@ -3505,16 +3505,16 @@
         <v>239</v>
       </c>
       <c r="E82">
-        <v>1088.071111111109</v>
+        <v>752.1284170854299</v>
       </c>
       <c r="F82">
-        <v>32.98592292343977</v>
+        <v>27.42495974628641</v>
       </c>
       <c r="G82">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H82">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I82">
         <v>255</v>
@@ -3526,15 +3526,15 @@
         <v>239</v>
       </c>
       <c r="L82">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>22680</v>
+        <v>47557</v>
       </c>
       <c r="B83">
-        <v>226.8</v>
+        <v>237.785</v>
       </c>
       <c r="C83">
         <v>239</v>
@@ -3543,16 +3543,16 @@
         <v>239</v>
       </c>
       <c r="E83">
-        <v>1235.939393939392</v>
+        <v>734.7826884422102</v>
       </c>
       <c r="F83">
-        <v>35.15592971234572</v>
+        <v>27.10687529838528</v>
       </c>
       <c r="G83">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H83">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I83">
         <v>255</v>
@@ -3564,15 +3564,15 @@
         <v>239</v>
       </c>
       <c r="L83">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>22268</v>
+        <v>47604</v>
       </c>
       <c r="B84">
-        <v>222.68</v>
+        <v>238.02</v>
       </c>
       <c r="C84">
         <v>239</v>
@@ -3581,36 +3581,36 @@
         <v>239</v>
       </c>
       <c r="E84">
-        <v>1253.694545454543</v>
+        <v>730.1704522613084</v>
       </c>
       <c r="F84">
-        <v>35.40754927207676</v>
+        <v>27.02166634871559</v>
       </c>
       <c r="G84">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H84">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I84">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J84">
-        <v>232.75</v>
+        <v>239</v>
       </c>
       <c r="K84">
         <v>239</v>
       </c>
       <c r="L84">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>21793</v>
+        <v>47652</v>
       </c>
       <c r="B85">
-        <v>217.93</v>
+        <v>238.26</v>
       </c>
       <c r="C85">
         <v>239</v>
@@ -3619,36 +3619,36 @@
         <v>239</v>
       </c>
       <c r="E85">
-        <v>1890.247575757577</v>
+        <v>726.2737688442188</v>
       </c>
       <c r="F85">
-        <v>43.47697753705491</v>
+        <v>26.94946694916652</v>
       </c>
       <c r="G85">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H85">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I85">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J85">
-        <v>228.5</v>
+        <v>239</v>
       </c>
       <c r="K85">
         <v>239</v>
       </c>
       <c r="L85">
-        <v>239</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>21479</v>
+        <v>47640</v>
       </c>
       <c r="B86">
-        <v>214.79</v>
+        <v>238.2</v>
       </c>
       <c r="C86">
         <v>239</v>
@@ -3657,36 +3657,36 @@
         <v>239</v>
       </c>
       <c r="E86">
-        <v>2184.612020202016</v>
+        <v>722.8542713567865</v>
       </c>
       <c r="F86">
-        <v>46.73983333519725</v>
+        <v>26.88594932965519</v>
       </c>
       <c r="G86">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H86">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I86">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J86">
-        <v>202.75</v>
+        <v>239</v>
       </c>
       <c r="K86">
         <v>239</v>
       </c>
       <c r="L86">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>22319</v>
+        <v>47522</v>
       </c>
       <c r="B87">
-        <v>223.19</v>
+        <v>237.61</v>
       </c>
       <c r="C87">
         <v>239</v>
@@ -3695,36 +3695,36 @@
         <v>239</v>
       </c>
       <c r="E87">
-        <v>1371.852424242425</v>
+        <v>705.4953768844232</v>
       </c>
       <c r="F87">
-        <v>37.03852621585294</v>
+        <v>26.56116294299674</v>
       </c>
       <c r="G87">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H87">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I87">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J87">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K87">
         <v>239</v>
       </c>
       <c r="L87">
-        <v>239</v>
+        <v>252.25</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>22493</v>
+        <v>47621</v>
       </c>
       <c r="B88">
-        <v>224.93</v>
+        <v>238.105</v>
       </c>
       <c r="C88">
         <v>239</v>
@@ -3733,19 +3733,19 @@
         <v>239</v>
       </c>
       <c r="E88">
-        <v>1283.66171717172</v>
+        <v>717.7024874371847</v>
       </c>
       <c r="F88">
-        <v>35.8282251468269</v>
+        <v>26.78996990362596</v>
       </c>
       <c r="G88">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H88">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I88">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J88">
         <v>239</v>
@@ -3754,15 +3754,15 @@
         <v>239</v>
       </c>
       <c r="L88">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>22480</v>
+        <v>47767</v>
       </c>
       <c r="B89">
-        <v>224.8</v>
+        <v>238.835</v>
       </c>
       <c r="C89">
         <v>239</v>
@@ -3771,19 +3771,19 @@
         <v>239</v>
       </c>
       <c r="E89">
-        <v>1697.878787878793</v>
+        <v>747.4349497487426</v>
       </c>
       <c r="F89">
-        <v>41.20532475152687</v>
+        <v>27.3392565690573</v>
       </c>
       <c r="G89">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H89">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I89">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="J89">
         <v>239</v>
@@ -3792,15 +3792,15 @@
         <v>239</v>
       </c>
       <c r="L89">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>22315</v>
+        <v>47767</v>
       </c>
       <c r="B90">
-        <v>223.15</v>
+        <v>238.835</v>
       </c>
       <c r="C90">
         <v>239</v>
@@ -3809,19 +3809,19 @@
         <v>239</v>
       </c>
       <c r="E90">
-        <v>2122.714646464648</v>
+        <v>740.8821859296469</v>
       </c>
       <c r="F90">
-        <v>46.07292747877703</v>
+        <v>27.21915108760093</v>
       </c>
       <c r="G90">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H90">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I90">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J90">
         <v>239</v>
@@ -3830,15 +3830,15 @@
         <v>239</v>
       </c>
       <c r="L90">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>22837</v>
+        <v>47780</v>
       </c>
       <c r="B91">
-        <v>228.37</v>
+        <v>238.9</v>
       </c>
       <c r="C91">
         <v>239</v>
@@ -3847,19 +3847,19 @@
         <v>239</v>
       </c>
       <c r="E91">
-        <v>1715.548585858586</v>
+        <v>735.1055276381926</v>
       </c>
       <c r="F91">
-        <v>41.41918137600724</v>
+        <v>27.11282957638676</v>
       </c>
       <c r="G91">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="H91">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="I91">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J91">
         <v>239</v>
@@ -3868,15 +3868,15 @@
         <v>239</v>
       </c>
       <c r="L91">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>23904</v>
+        <v>47782</v>
       </c>
       <c r="B92">
-        <v>239.04</v>
+        <v>238.91</v>
       </c>
       <c r="C92">
         <v>239</v>
@@ -3885,19 +3885,19 @@
         <v>239</v>
       </c>
       <c r="E92">
-        <v>7.614545454545479</v>
+        <v>729.1978894472363</v>
       </c>
       <c r="F92">
-        <v>2.759446584832814</v>
+        <v>27.00366437073377</v>
       </c>
       <c r="G92">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="H92">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="I92">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J92">
         <v>239</v>
@@ -3906,15 +3906,15 @@
         <v>239</v>
       </c>
       <c r="L92">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>23879</v>
+        <v>47781</v>
       </c>
       <c r="B93">
-        <v>238.79</v>
+        <v>238.905</v>
       </c>
       <c r="C93">
         <v>239</v>
@@ -3923,19 +3923,19 @@
         <v>239</v>
       </c>
       <c r="E93">
-        <v>6.632222222222204</v>
+        <v>724.6894221105542</v>
       </c>
       <c r="F93">
-        <v>2.575310121562489</v>
+        <v>26.92005613126678</v>
       </c>
       <c r="G93">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="H93">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="I93">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J93">
         <v>239</v>
@@ -3944,15 +3944,15 @@
         <v>239</v>
       </c>
       <c r="L93">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>23900</v>
+        <v>47786</v>
       </c>
       <c r="B94">
-        <v>239</v>
+        <v>238.93</v>
       </c>
       <c r="C94">
         <v>239</v>
@@ -3961,19 +3961,19 @@
         <v>239</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>727.824221105527</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>26.97821753017658</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="H94">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="I94">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J94">
         <v>239</v>
@@ -3982,15 +3982,15 @@
         <v>239</v>
       </c>
       <c r="L94">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>23900</v>
+        <v>47768</v>
       </c>
       <c r="B95">
-        <v>239</v>
+        <v>238.84</v>
       </c>
       <c r="C95">
         <v>239</v>
@@ -3999,19 +3999,19 @@
         <v>239</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>737.7531658291459</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>27.161611988782</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="H95">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="I95">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J95">
         <v>239</v>
@@ -4020,15 +4020,15 @@
         <v>239</v>
       </c>
       <c r="L95">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>23900</v>
+        <v>47756</v>
       </c>
       <c r="B96">
-        <v>239</v>
+        <v>238.78</v>
       </c>
       <c r="C96">
         <v>239</v>
@@ -4037,19 +4037,19 @@
         <v>239</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>747.3181909547741</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>27.33712111680332</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H96">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="I96">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J96">
         <v>239</v>
@@ -4058,15 +4058,15 @@
         <v>239</v>
       </c>
       <c r="L96">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>23900</v>
+        <v>47737</v>
       </c>
       <c r="B97">
-        <v>239</v>
+        <v>238.685</v>
       </c>
       <c r="C97">
         <v>239</v>
@@ -4075,19 +4075,19 @@
         <v>239</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>757.9857035175904</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>27.53154015883584</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H97">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="I97">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J97">
         <v>239</v>
@@ -4096,15 +4096,15 @@
         <v>239</v>
       </c>
       <c r="L97">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>23900</v>
+        <v>47724</v>
       </c>
       <c r="B98">
-        <v>239</v>
+        <v>238.62</v>
       </c>
       <c r="C98">
         <v>239</v>
@@ -4113,19 +4113,19 @@
         <v>239</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>765.9553768844205</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>27.67589884510385</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="H98">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="I98">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J98">
         <v>239</v>
@@ -4134,15 +4134,15 @@
         <v>239</v>
       </c>
       <c r="L98">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>23900</v>
+        <v>47676</v>
       </c>
       <c r="B99">
-        <v>239</v>
+        <v>238.38</v>
       </c>
       <c r="C99">
         <v>239</v>
@@ -4151,19 +4151,19 @@
         <v>239</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>771.6438190954792</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>27.7784776237914</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="H99">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="I99">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J99">
         <v>239</v>
@@ -4172,15 +4172,15 @@
         <v>239</v>
       </c>
       <c r="L99">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>23900</v>
+        <v>47665</v>
       </c>
       <c r="B100">
-        <v>239</v>
+        <v>238.325</v>
       </c>
       <c r="C100">
         <v>239</v>
@@ -4189,19 +4189,19 @@
         <v>239</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>768.491834170855</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>27.72168526931317</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H100">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="I100">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J100">
         <v>239</v>
@@ -4210,15 +4210,15 @@
         <v>239</v>
       </c>
       <c r="L100">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>23900</v>
+        <v>47686</v>
       </c>
       <c r="B101">
-        <v>239</v>
+        <v>238.43</v>
       </c>
       <c r="C101">
         <v>239</v>
@@ -4227,27 +4227,3827 @@
         <v>239</v>
       </c>
       <c r="E101">
+        <v>749.4624120603021</v>
+      </c>
+      <c r="F101">
+        <v>27.37631114778436</v>
+      </c>
+      <c r="G101">
+        <v>180</v>
+      </c>
+      <c r="H101">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>239</v>
+      </c>
+      <c r="K101">
+        <v>239</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>47695</v>
+      </c>
+      <c r="B102">
+        <v>238.475</v>
+      </c>
+      <c r="C102">
+        <v>239</v>
+      </c>
+      <c r="D102">
+        <v>239</v>
+      </c>
+      <c r="E102">
+        <v>735.7179648241215</v>
+      </c>
+      <c r="F102">
+        <v>27.12412145718496</v>
+      </c>
+      <c r="G102">
+        <v>172</v>
+      </c>
+      <c r="H102">
+        <v>83</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>239</v>
+      </c>
+      <c r="K102">
+        <v>239</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>47684</v>
+      </c>
+      <c r="B103">
+        <v>238.42</v>
+      </c>
+      <c r="C103">
+        <v>239</v>
+      </c>
+      <c r="D103">
+        <v>239</v>
+      </c>
+      <c r="E103">
+        <v>730.8176884422105</v>
+      </c>
+      <c r="F103">
+        <v>27.03363994067781</v>
+      </c>
+      <c r="G103">
+        <v>162</v>
+      </c>
+      <c r="H103">
+        <v>93</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>239</v>
+      </c>
+      <c r="K103">
+        <v>239</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>47660</v>
+      </c>
+      <c r="B104">
+        <v>238.3</v>
+      </c>
+      <c r="C104">
+        <v>239</v>
+      </c>
+      <c r="D104">
+        <v>239</v>
+      </c>
+      <c r="E104">
+        <v>738.6532663316565</v>
+      </c>
+      <c r="F104">
+        <v>27.17817628781697</v>
+      </c>
+      <c r="G104">
+        <v>164</v>
+      </c>
+      <c r="H104">
+        <v>91</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>239</v>
+      </c>
+      <c r="K104">
+        <v>239</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>47616</v>
+      </c>
+      <c r="B105">
+        <v>238.08</v>
+      </c>
+      <c r="C105">
+        <v>239</v>
+      </c>
+      <c r="D105">
+        <v>239</v>
+      </c>
+      <c r="E105">
+        <v>773.0387939698504</v>
+      </c>
+      <c r="F105">
+        <v>27.80357520121919</v>
+      </c>
+      <c r="G105">
+        <v>176</v>
+      </c>
+      <c r="H105">
+        <v>79</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>239</v>
+      </c>
+      <c r="K105">
+        <v>239</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>47570</v>
+      </c>
+      <c r="B106">
+        <v>237.85</v>
+      </c>
+      <c r="C106">
+        <v>239</v>
+      </c>
+      <c r="D106">
+        <v>239</v>
+      </c>
+      <c r="E106">
+        <v>812.3291457286443</v>
+      </c>
+      <c r="F106">
+        <v>28.50138848773239</v>
+      </c>
+      <c r="G106">
+        <v>186</v>
+      </c>
+      <c r="H106">
+        <v>69</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>239</v>
+      </c>
+      <c r="K106">
+        <v>239</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>47538</v>
+      </c>
+      <c r="B107">
+        <v>237.69</v>
+      </c>
+      <c r="C107">
+        <v>239</v>
+      </c>
+      <c r="D107">
+        <v>239</v>
+      </c>
+      <c r="E107">
+        <v>828.5466331658282</v>
+      </c>
+      <c r="F107">
+        <v>28.78448598057343</v>
+      </c>
+      <c r="G107">
+        <v>188</v>
+      </c>
+      <c r="H107">
+        <v>67</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>239</v>
+      </c>
+      <c r="K107">
+        <v>239</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>47525</v>
+      </c>
+      <c r="B108">
+        <v>237.625</v>
+      </c>
+      <c r="C108">
+        <v>239</v>
+      </c>
+      <c r="D108">
+        <v>239</v>
+      </c>
+      <c r="E108">
+        <v>831.9440954773869</v>
+      </c>
+      <c r="F108">
+        <v>28.84344111713072</v>
+      </c>
+      <c r="G108">
+        <v>185</v>
+      </c>
+      <c r="H108">
+        <v>70</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>239</v>
+      </c>
+      <c r="K108">
+        <v>239</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>47521</v>
+      </c>
+      <c r="B109">
+        <v>237.605</v>
+      </c>
+      <c r="C109">
+        <v>239</v>
+      </c>
+      <c r="D109">
+        <v>239</v>
+      </c>
+      <c r="E109">
+        <v>827.7577638190966</v>
+      </c>
+      <c r="F109">
+        <v>28.77077968736851</v>
+      </c>
+      <c r="G109">
+        <v>179</v>
+      </c>
+      <c r="H109">
+        <v>76</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>239</v>
+      </c>
+      <c r="K109">
+        <v>239</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>47499</v>
+      </c>
+      <c r="B110">
+        <v>237.495</v>
+      </c>
+      <c r="C110">
+        <v>239</v>
+      </c>
+      <c r="D110">
+        <v>239</v>
+      </c>
+      <c r="E110">
+        <v>812.9748492462303</v>
+      </c>
+      <c r="F110">
+        <v>28.51271381763283</v>
+      </c>
+      <c r="G110">
+        <v>174</v>
+      </c>
+      <c r="H110">
+        <v>81</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>239</v>
+      </c>
+      <c r="K110">
+        <v>239</v>
+      </c>
+      <c r="L110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>47502</v>
+      </c>
+      <c r="B111">
+        <v>237.51</v>
+      </c>
+      <c r="C111">
+        <v>239</v>
+      </c>
+      <c r="D111">
+        <v>239</v>
+      </c>
+      <c r="E111">
+        <v>785.9395979899506</v>
+      </c>
+      <c r="F111">
+        <v>28.03461428288163</v>
+      </c>
+      <c r="G111">
+        <v>180</v>
+      </c>
+      <c r="H111">
+        <v>75</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>239</v>
+      </c>
+      <c r="K111">
+        <v>239</v>
+      </c>
+      <c r="L111">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>47502</v>
+      </c>
+      <c r="B112">
+        <v>237.51</v>
+      </c>
+      <c r="C112">
+        <v>239</v>
+      </c>
+      <c r="D112">
+        <v>239</v>
+      </c>
+      <c r="E112">
+        <v>757.9395979899507</v>
+      </c>
+      <c r="F112">
+        <v>27.53070282411894</v>
+      </c>
+      <c r="G112">
+        <v>182</v>
+      </c>
+      <c r="H112">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>239</v>
+      </c>
+      <c r="K112">
+        <v>239</v>
+      </c>
+      <c r="L112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>47471</v>
+      </c>
+      <c r="B113">
+        <v>237.355</v>
+      </c>
+      <c r="C113">
+        <v>239</v>
+      </c>
+      <c r="D113">
+        <v>239</v>
+      </c>
+      <c r="E113">
+        <v>764.7326381909529</v>
+      </c>
+      <c r="F113">
+        <v>27.65379970620589</v>
+      </c>
+      <c r="G113">
+        <v>186</v>
+      </c>
+      <c r="H113">
+        <v>69</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>239</v>
+      </c>
+      <c r="K113">
+        <v>239</v>
+      </c>
+      <c r="L113">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>47457</v>
+      </c>
+      <c r="B114">
+        <v>237.285</v>
+      </c>
+      <c r="C114">
+        <v>239</v>
+      </c>
+      <c r="D114">
+        <v>239</v>
+      </c>
+      <c r="E114">
+        <v>779.0992713567813</v>
+      </c>
+      <c r="F114">
+        <v>27.91234979998605</v>
+      </c>
+      <c r="G114">
+        <v>178</v>
+      </c>
+      <c r="H114">
+        <v>77</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>239</v>
+      </c>
+      <c r="K114">
+        <v>239</v>
+      </c>
+      <c r="L114">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>47450</v>
+      </c>
+      <c r="B115">
+        <v>237.25</v>
+      </c>
+      <c r="C115">
+        <v>239</v>
+      </c>
+      <c r="D115">
+        <v>239</v>
+      </c>
+      <c r="E115">
+        <v>786.5804020100503</v>
+      </c>
+      <c r="F115">
+        <v>28.04604075462436</v>
+      </c>
+      <c r="G115">
+        <v>173</v>
+      </c>
+      <c r="H115">
+        <v>82</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>239</v>
+      </c>
+      <c r="K115">
+        <v>239</v>
+      </c>
+      <c r="L115">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>47455</v>
+      </c>
+      <c r="B116">
+        <v>237.275</v>
+      </c>
+      <c r="C116">
+        <v>239</v>
+      </c>
+      <c r="D116">
+        <v>239</v>
+      </c>
+      <c r="E116">
+        <v>797.8285175879366</v>
+      </c>
+      <c r="F116">
+        <v>28.24585841478245</v>
+      </c>
+      <c r="G116">
+        <v>177</v>
+      </c>
+      <c r="H116">
+        <v>78</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>239</v>
+      </c>
+      <c r="K116">
+        <v>239</v>
+      </c>
+      <c r="L116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>47444</v>
+      </c>
+      <c r="B117">
+        <v>237.22</v>
+      </c>
+      <c r="C117">
+        <v>239</v>
+      </c>
+      <c r="D117">
+        <v>239</v>
+      </c>
+      <c r="E117">
+        <v>816.0116582914566</v>
+      </c>
+      <c r="F117">
+        <v>28.5659177743593</v>
+      </c>
+      <c r="G117">
+        <v>171</v>
+      </c>
+      <c r="H117">
+        <v>84</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>239</v>
+      </c>
+      <c r="K117">
+        <v>239</v>
+      </c>
+      <c r="L117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>47431</v>
+      </c>
+      <c r="B118">
+        <v>237.155</v>
+      </c>
+      <c r="C118">
+        <v>239</v>
+      </c>
+      <c r="D118">
+        <v>239</v>
+      </c>
+      <c r="E118">
+        <v>836.0411809045206</v>
+      </c>
+      <c r="F118">
+        <v>28.91437671651458</v>
+      </c>
+      <c r="G118">
+        <v>181</v>
+      </c>
+      <c r="H118">
+        <v>74</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>239</v>
+      </c>
+      <c r="K118">
+        <v>239</v>
+      </c>
+      <c r="L118">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>47433</v>
+      </c>
+      <c r="B119">
+        <v>237.165</v>
+      </c>
+      <c r="C119">
+        <v>239</v>
+      </c>
+      <c r="D119">
+        <v>239</v>
+      </c>
+      <c r="E119">
+        <v>845.2238944723612</v>
+      </c>
+      <c r="F119">
+        <v>29.07273455443022</v>
+      </c>
+      <c r="G119">
+        <v>191</v>
+      </c>
+      <c r="H119">
+        <v>64</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>239</v>
+      </c>
+      <c r="K119">
+        <v>239</v>
+      </c>
+      <c r="L119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>47428</v>
+      </c>
+      <c r="B120">
+        <v>237.14</v>
+      </c>
+      <c r="C120">
+        <v>239</v>
+      </c>
+      <c r="D120">
+        <v>239</v>
+      </c>
+      <c r="E120">
+        <v>845.9501507537691</v>
+      </c>
+      <c r="F120">
+        <v>29.08522220567979</v>
+      </c>
+      <c r="G120">
+        <v>191</v>
+      </c>
+      <c r="H120">
+        <v>64</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>239</v>
+      </c>
+      <c r="K120">
+        <v>239</v>
+      </c>
+      <c r="L120">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>47361</v>
+      </c>
+      <c r="B121">
+        <v>236.805</v>
+      </c>
+      <c r="C121">
+        <v>239</v>
+      </c>
+      <c r="D121">
+        <v>239</v>
+      </c>
+      <c r="E121">
+        <v>879.2833919597957</v>
+      </c>
+      <c r="F121">
+        <v>29.65271306237923</v>
+      </c>
+      <c r="G121">
+        <v>190</v>
+      </c>
+      <c r="H121">
+        <v>65</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>239</v>
+      </c>
+      <c r="K121">
+        <v>239</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>47373</v>
+      </c>
+      <c r="B122">
+        <v>236.865</v>
+      </c>
+      <c r="C122">
+        <v>239</v>
+      </c>
+      <c r="D122">
+        <v>239</v>
+      </c>
+      <c r="E122">
+        <v>865.413844221103</v>
+      </c>
+      <c r="F122">
+        <v>29.41791706122483</v>
+      </c>
+      <c r="G122">
+        <v>191</v>
+      </c>
+      <c r="H122">
+        <v>64</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>239</v>
+      </c>
+      <c r="K122">
+        <v>239</v>
+      </c>
+      <c r="L122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>47355</v>
+      </c>
+      <c r="B123">
+        <v>236.775</v>
+      </c>
+      <c r="C123">
+        <v>239</v>
+      </c>
+      <c r="D123">
+        <v>239</v>
+      </c>
+      <c r="E123">
+        <v>862.1652010050253</v>
+      </c>
+      <c r="F123">
+        <v>29.36264976130433</v>
+      </c>
+      <c r="G123">
+        <v>186</v>
+      </c>
+      <c r="H123">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>239</v>
+      </c>
+      <c r="K123">
+        <v>239</v>
+      </c>
+      <c r="L123">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>47302</v>
+      </c>
+      <c r="B124">
+        <v>236.51</v>
+      </c>
+      <c r="C124">
+        <v>239</v>
+      </c>
+      <c r="D124">
+        <v>239</v>
+      </c>
+      <c r="E124">
+        <v>875.2159798994952</v>
+      </c>
+      <c r="F124">
+        <v>29.58404941686474</v>
+      </c>
+      <c r="G124">
+        <v>186</v>
+      </c>
+      <c r="H124">
+        <v>69</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>239</v>
+      </c>
+      <c r="K124">
+        <v>239</v>
+      </c>
+      <c r="L124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>47258</v>
+      </c>
+      <c r="B125">
+        <v>236.29</v>
+      </c>
+      <c r="C125">
+        <v>239</v>
+      </c>
+      <c r="D125">
+        <v>239</v>
+      </c>
+      <c r="E125">
+        <v>873.6139698492442</v>
+      </c>
+      <c r="F125">
+        <v>29.55696144479747</v>
+      </c>
+      <c r="G125">
+        <v>211</v>
+      </c>
+      <c r="H125">
+        <v>44</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>239</v>
+      </c>
+      <c r="K125">
+        <v>239</v>
+      </c>
+      <c r="L125">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>47261</v>
+      </c>
+      <c r="B126">
+        <v>236.305</v>
+      </c>
+      <c r="C126">
+        <v>239</v>
+      </c>
+      <c r="D126">
+        <v>239</v>
+      </c>
+      <c r="E126">
+        <v>858.3738442211035</v>
+      </c>
+      <c r="F126">
+        <v>29.29801775241976</v>
+      </c>
+      <c r="G126">
+        <v>203</v>
+      </c>
+      <c r="H126">
+        <v>52</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>239</v>
+      </c>
+      <c r="K126">
+        <v>239</v>
+      </c>
+      <c r="L126">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>47236</v>
+      </c>
+      <c r="B127">
+        <v>236.18</v>
+      </c>
+      <c r="C127">
+        <v>239</v>
+      </c>
+      <c r="D127">
+        <v>239</v>
+      </c>
+      <c r="E127">
+        <v>881.1433165829167</v>
+      </c>
+      <c r="F127">
+        <v>29.68405829031665</v>
+      </c>
+      <c r="G127">
+        <v>188</v>
+      </c>
+      <c r="H127">
+        <v>67</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>239</v>
+      </c>
+      <c r="K127">
+        <v>239</v>
+      </c>
+      <c r="L127">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>47200</v>
+      </c>
+      <c r="B128">
+        <v>236</v>
+      </c>
+      <c r="C128">
+        <v>239</v>
+      </c>
+      <c r="D128">
+        <v>239</v>
+      </c>
+      <c r="E128">
+        <v>946.4824120603015</v>
+      </c>
+      <c r="F128">
+        <v>30.76495428340991</v>
+      </c>
+      <c r="G128">
+        <v>201</v>
+      </c>
+      <c r="H128">
+        <v>54</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>239</v>
+      </c>
+      <c r="K128">
+        <v>239</v>
+      </c>
+      <c r="L128">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>47211</v>
+      </c>
+      <c r="B129">
+        <v>236.055</v>
+      </c>
+      <c r="C129">
+        <v>239</v>
+      </c>
+      <c r="D129">
+        <v>239</v>
+      </c>
+      <c r="E129">
+        <v>960.4039949748744</v>
+      </c>
+      <c r="F129">
+        <v>30.99038552478614</v>
+      </c>
+      <c r="G129">
+        <v>207</v>
+      </c>
+      <c r="H129">
+        <v>48</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>239</v>
+      </c>
+      <c r="K129">
+        <v>239</v>
+      </c>
+      <c r="L129">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>47249</v>
+      </c>
+      <c r="B130">
+        <v>236.245</v>
+      </c>
+      <c r="C130">
+        <v>239</v>
+      </c>
+      <c r="D130">
+        <v>239</v>
+      </c>
+      <c r="E130">
+        <v>929.582889447239</v>
+      </c>
+      <c r="F130">
+        <v>30.48906180004952</v>
+      </c>
+      <c r="G130">
+        <v>217</v>
+      </c>
+      <c r="H130">
+        <v>38</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>239</v>
+      </c>
+      <c r="K130">
+        <v>239</v>
+      </c>
+      <c r="L130">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>47231</v>
+      </c>
+      <c r="B131">
+        <v>236.155</v>
+      </c>
+      <c r="C131">
+        <v>239</v>
+      </c>
+      <c r="D131">
+        <v>239</v>
+      </c>
+      <c r="E131">
+        <v>900.1416834170853</v>
+      </c>
+      <c r="F131">
+        <v>30.002361297356</v>
+      </c>
+      <c r="G131">
+        <v>196</v>
+      </c>
+      <c r="H131">
+        <v>59</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>239</v>
+      </c>
+      <c r="K131">
+        <v>239</v>
+      </c>
+      <c r="L131">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>47155</v>
+      </c>
+      <c r="B132">
+        <v>235.775</v>
+      </c>
+      <c r="C132">
+        <v>239</v>
+      </c>
+      <c r="D132">
+        <v>239</v>
+      </c>
+      <c r="E132">
+        <v>964.8184673366865</v>
+      </c>
+      <c r="F132">
+        <v>31.06152712499317</v>
+      </c>
+      <c r="G132">
+        <v>209</v>
+      </c>
+      <c r="H132">
+        <v>46</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>239</v>
+      </c>
+      <c r="K132">
+        <v>239</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>47132</v>
+      </c>
+      <c r="B133">
+        <v>235.66</v>
+      </c>
+      <c r="C133">
+        <v>239</v>
+      </c>
+      <c r="D133">
+        <v>239</v>
+      </c>
+      <c r="E133">
+        <v>946.3260301507543</v>
+      </c>
+      <c r="F133">
+        <v>30.76241261914862</v>
+      </c>
+      <c r="G133">
+        <v>197</v>
+      </c>
+      <c r="H133">
+        <v>58</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>239</v>
+      </c>
+      <c r="K133">
+        <v>239</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>47139</v>
+      </c>
+      <c r="B134">
+        <v>235.695</v>
+      </c>
+      <c r="C134">
+        <v>239</v>
+      </c>
+      <c r="D134">
+        <v>239</v>
+      </c>
+      <c r="E134">
+        <v>925.0070100502506</v>
+      </c>
+      <c r="F134">
+        <v>30.41392789578897</v>
+      </c>
+      <c r="G134">
+        <v>189</v>
+      </c>
+      <c r="H134">
+        <v>66</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>239</v>
+      </c>
+      <c r="K134">
+        <v>239</v>
+      </c>
+      <c r="L134">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>47157</v>
+      </c>
+      <c r="B135">
+        <v>235.785</v>
+      </c>
+      <c r="C135">
+        <v>239</v>
+      </c>
+      <c r="D135">
+        <v>239</v>
+      </c>
+      <c r="E135">
+        <v>920.9635929648251</v>
+      </c>
+      <c r="F135">
+        <v>30.34738197876095</v>
+      </c>
+      <c r="G135">
+        <v>193</v>
+      </c>
+      <c r="H135">
+        <v>62</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>239</v>
+      </c>
+      <c r="K135">
+        <v>239</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>47194</v>
+      </c>
+      <c r="B136">
+        <v>235.97</v>
+      </c>
+      <c r="C136">
+        <v>239</v>
+      </c>
+      <c r="D136">
+        <v>239</v>
+      </c>
+      <c r="E136">
+        <v>938.2905527638203</v>
+      </c>
+      <c r="F136">
+        <v>30.63152873697002</v>
+      </c>
+      <c r="G136">
+        <v>205</v>
+      </c>
+      <c r="H136">
+        <v>50</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>239</v>
+      </c>
+      <c r="K136">
+        <v>239</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>47127</v>
+      </c>
+      <c r="B137">
+        <v>235.635</v>
+      </c>
+      <c r="C137">
+        <v>239</v>
+      </c>
+      <c r="D137">
+        <v>239</v>
+      </c>
+      <c r="E137">
+        <v>974.0721356783907</v>
+      </c>
+      <c r="F137">
+        <v>31.21012873537036</v>
+      </c>
+      <c r="G137">
+        <v>192</v>
+      </c>
+      <c r="H137">
+        <v>63</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>239</v>
+      </c>
+      <c r="K137">
+        <v>239</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>47052</v>
+      </c>
+      <c r="B138">
+        <v>235.26</v>
+      </c>
+      <c r="C138">
+        <v>239</v>
+      </c>
+      <c r="D138">
+        <v>239</v>
+      </c>
+      <c r="E138">
+        <v>1008.565226130652</v>
+      </c>
+      <c r="F138">
+        <v>31.75791596012956</v>
+      </c>
+      <c r="G138">
+        <v>213</v>
+      </c>
+      <c r="H138">
+        <v>42</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>239</v>
+      </c>
+      <c r="K138">
+        <v>239</v>
+      </c>
+      <c r="L138">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>47012</v>
+      </c>
+      <c r="B139">
+        <v>235.06</v>
+      </c>
+      <c r="C139">
+        <v>239</v>
+      </c>
+      <c r="D139">
+        <v>239</v>
+      </c>
+      <c r="E139">
+        <v>1015.895879396982</v>
+      </c>
+      <c r="F139">
+        <v>31.87312158225144</v>
+      </c>
+      <c r="G139">
+        <v>226</v>
+      </c>
+      <c r="H139">
+        <v>29</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>239</v>
+      </c>
+      <c r="K139">
+        <v>239</v>
+      </c>
+      <c r="L139">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>47057</v>
+      </c>
+      <c r="B140">
+        <v>235.285</v>
+      </c>
+      <c r="C140">
+        <v>239</v>
+      </c>
+      <c r="D140">
+        <v>239</v>
+      </c>
+      <c r="E140">
+        <v>976.7776633165823</v>
+      </c>
+      <c r="F140">
+        <v>31.25344242346085</v>
+      </c>
+      <c r="G140">
+        <v>204</v>
+      </c>
+      <c r="H140">
+        <v>51</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>239</v>
+      </c>
+      <c r="K140">
+        <v>239</v>
+      </c>
+      <c r="L140">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>47099</v>
+      </c>
+      <c r="B141">
+        <v>235.495</v>
+      </c>
+      <c r="C141">
+        <v>239</v>
+      </c>
+      <c r="D141">
+        <v>239</v>
+      </c>
+      <c r="E141">
+        <v>968.2612814070318</v>
+      </c>
+      <c r="F141">
+        <v>31.11689704014576</v>
+      </c>
+      <c r="G141">
+        <v>192</v>
+      </c>
+      <c r="H141">
+        <v>63</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>239</v>
+      </c>
+      <c r="K141">
+        <v>239</v>
+      </c>
+      <c r="L141">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>47063</v>
+      </c>
+      <c r="B142">
+        <v>235.315</v>
+      </c>
+      <c r="C142">
+        <v>239</v>
+      </c>
+      <c r="D142">
+        <v>239</v>
+      </c>
+      <c r="E142">
+        <v>937.4329396984912</v>
+      </c>
+      <c r="F142">
+        <v>30.61752667506785</v>
+      </c>
+      <c r="G142">
+        <v>202</v>
+      </c>
+      <c r="H142">
+        <v>53</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>239</v>
+      </c>
+      <c r="K142">
+        <v>239</v>
+      </c>
+      <c r="L142">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>47026</v>
+      </c>
+      <c r="B143">
+        <v>235.13</v>
+      </c>
+      <c r="C143">
+        <v>239</v>
+      </c>
+      <c r="D143">
+        <v>239</v>
+      </c>
+      <c r="E143">
+        <v>944.6563819095505</v>
+      </c>
+      <c r="F143">
+        <v>30.73526284106824</v>
+      </c>
+      <c r="G143">
+        <v>211</v>
+      </c>
+      <c r="H143">
+        <v>44</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>239</v>
+      </c>
+      <c r="K143">
+        <v>239</v>
+      </c>
+      <c r="L143">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>47064</v>
+      </c>
+      <c r="B144">
+        <v>235.32</v>
+      </c>
+      <c r="C144">
+        <v>239</v>
+      </c>
+      <c r="D144">
+        <v>239</v>
+      </c>
+      <c r="E144">
+        <v>966.0779899497502</v>
+      </c>
+      <c r="F144">
+        <v>31.08179515326858</v>
+      </c>
+      <c r="G144">
+        <v>198</v>
+      </c>
+      <c r="H144">
+        <v>57</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>239</v>
+      </c>
+      <c r="K144">
+        <v>239</v>
+      </c>
+      <c r="L144">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>47063</v>
+      </c>
+      <c r="B145">
+        <v>235.315</v>
+      </c>
+      <c r="C145">
+        <v>239</v>
+      </c>
+      <c r="D145">
+        <v>239</v>
+      </c>
+      <c r="E145">
+        <v>978.8701256281397</v>
+      </c>
+      <c r="F145">
+        <v>31.2869002240257</v>
+      </c>
+      <c r="G145">
+        <v>217</v>
+      </c>
+      <c r="H145">
+        <v>38</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>239</v>
+      </c>
+      <c r="K145">
+        <v>239</v>
+      </c>
+      <c r="L145">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>47035</v>
+      </c>
+      <c r="B146">
+        <v>235.175</v>
+      </c>
+      <c r="C146">
+        <v>239</v>
+      </c>
+      <c r="D146">
+        <v>239</v>
+      </c>
+      <c r="E146">
+        <v>971.2807788944699</v>
+      </c>
+      <c r="F146">
+        <v>31.16537788788177</v>
+      </c>
+      <c r="G146">
+        <v>203</v>
+      </c>
+      <c r="H146">
+        <v>52</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>239</v>
+      </c>
+      <c r="K146">
+        <v>239</v>
+      </c>
+      <c r="L146">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>46983</v>
+      </c>
+      <c r="B147">
+        <v>234.915</v>
+      </c>
+      <c r="C147">
+        <v>239</v>
+      </c>
+      <c r="D147">
+        <v>239</v>
+      </c>
+      <c r="E147">
+        <v>960.4902261306539</v>
+      </c>
+      <c r="F147">
+        <v>30.99177675014219</v>
+      </c>
+      <c r="G147">
+        <v>194</v>
+      </c>
+      <c r="H147">
+        <v>61</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>239</v>
+      </c>
+      <c r="K147">
+        <v>239</v>
+      </c>
+      <c r="L147">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>46913</v>
+      </c>
+      <c r="B148">
+        <v>234.565</v>
+      </c>
+      <c r="C148">
+        <v>239</v>
+      </c>
+      <c r="D148">
+        <v>239</v>
+      </c>
+      <c r="E148">
+        <v>978.1565577889428</v>
+      </c>
+      <c r="F148">
+        <v>31.27549452509013</v>
+      </c>
+      <c r="G148">
+        <v>196</v>
+      </c>
+      <c r="H148">
+        <v>59</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>239</v>
+      </c>
+      <c r="K148">
+        <v>239</v>
+      </c>
+      <c r="L148">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>46895</v>
+      </c>
+      <c r="B149">
+        <v>234.475</v>
+      </c>
+      <c r="C149">
+        <v>239</v>
+      </c>
+      <c r="D149">
+        <v>239</v>
+      </c>
+      <c r="E149">
+        <v>959.9692211055249</v>
+      </c>
+      <c r="F149">
+        <v>30.98337007340429</v>
+      </c>
+      <c r="G149">
+        <v>195</v>
+      </c>
+      <c r="H149">
+        <v>60</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>239</v>
+      </c>
+      <c r="K149">
+        <v>239</v>
+      </c>
+      <c r="L149">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>46898</v>
+      </c>
+      <c r="B150">
+        <v>234.49</v>
+      </c>
+      <c r="C150">
+        <v>239</v>
+      </c>
+      <c r="D150">
+        <v>239</v>
+      </c>
+      <c r="E150">
+        <v>924.4019095477391</v>
+      </c>
+      <c r="F150">
+        <v>30.40397851511771</v>
+      </c>
+      <c r="G150">
+        <v>192</v>
+      </c>
+      <c r="H150">
+        <v>63</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>239</v>
+      </c>
+      <c r="K150">
+        <v>239</v>
+      </c>
+      <c r="L150">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>46937</v>
+      </c>
+      <c r="B151">
+        <v>234.685</v>
+      </c>
+      <c r="C151">
+        <v>239</v>
+      </c>
+      <c r="D151">
+        <v>239</v>
+      </c>
+      <c r="E151">
+        <v>891.5635929648237</v>
+      </c>
+      <c r="F151">
+        <v>29.85906215815935</v>
+      </c>
+      <c r="G151">
+        <v>181</v>
+      </c>
+      <c r="H151">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>239</v>
+      </c>
+      <c r="K151">
+        <v>239</v>
+      </c>
+      <c r="L151">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>46993</v>
+      </c>
+      <c r="B152">
+        <v>234.965</v>
+      </c>
+      <c r="C152">
+        <v>239</v>
+      </c>
+      <c r="D152">
+        <v>239</v>
+      </c>
+      <c r="E152">
+        <v>898.7575628140745</v>
+      </c>
+      <c r="F152">
+        <v>29.97928556210228</v>
+      </c>
+      <c r="G152">
+        <v>201</v>
+      </c>
+      <c r="H152">
+        <v>54</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>239</v>
+      </c>
+      <c r="K152">
+        <v>239</v>
+      </c>
+      <c r="L152">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>46844</v>
+      </c>
+      <c r="B153">
+        <v>234.22</v>
+      </c>
+      <c r="C153">
+        <v>239</v>
+      </c>
+      <c r="D153">
+        <v>239</v>
+      </c>
+      <c r="E153">
+        <v>876.2327638190922</v>
+      </c>
+      <c r="F153">
+        <v>29.60122909304768</v>
+      </c>
+      <c r="G153">
+        <v>194</v>
+      </c>
+      <c r="H153">
+        <v>61</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>239</v>
+      </c>
+      <c r="K153">
+        <v>239</v>
+      </c>
+      <c r="L153">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>46760</v>
+      </c>
+      <c r="B154">
+        <v>233.8</v>
+      </c>
+      <c r="C154">
+        <v>239</v>
+      </c>
+      <c r="D154">
+        <v>239</v>
+      </c>
+      <c r="E154">
+        <v>934.9346733668374</v>
+      </c>
+      <c r="F154">
+        <v>30.57670147950621</v>
+      </c>
+      <c r="G154">
+        <v>192</v>
+      </c>
+      <c r="H154">
+        <v>63</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>239</v>
+      </c>
+      <c r="K154">
+        <v>239</v>
+      </c>
+      <c r="L154">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>46774</v>
+      </c>
+      <c r="B155">
+        <v>233.87</v>
+      </c>
+      <c r="C155">
+        <v>239</v>
+      </c>
+      <c r="D155">
+        <v>239</v>
+      </c>
+      <c r="E155">
+        <v>939.0483417085446</v>
+      </c>
+      <c r="F155">
+        <v>30.64389566795554</v>
+      </c>
+      <c r="G155">
+        <v>195</v>
+      </c>
+      <c r="H155">
+        <v>60</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>239</v>
+      </c>
+      <c r="K155">
+        <v>239</v>
+      </c>
+      <c r="L155">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>46783</v>
+      </c>
+      <c r="B156">
+        <v>233.915</v>
+      </c>
+      <c r="C156">
+        <v>239</v>
+      </c>
+      <c r="D156">
+        <v>239</v>
+      </c>
+      <c r="E156">
+        <v>905.7565577889491</v>
+      </c>
+      <c r="F156">
+        <v>30.09578970203223</v>
+      </c>
+      <c r="G156">
+        <v>192</v>
+      </c>
+      <c r="H156">
+        <v>63</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>239</v>
+      </c>
+      <c r="K156">
+        <v>239</v>
+      </c>
+      <c r="L156">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>46725</v>
+      </c>
+      <c r="B157">
+        <v>233.625</v>
+      </c>
+      <c r="C157">
+        <v>239</v>
+      </c>
+      <c r="D157">
+        <v>239</v>
+      </c>
+      <c r="E157">
+        <v>913.6727386934673</v>
+      </c>
+      <c r="F157">
+        <v>30.22702001014105</v>
+      </c>
+      <c r="G157">
+        <v>184</v>
+      </c>
+      <c r="H157">
+        <v>71</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>239</v>
+      </c>
+      <c r="K157">
+        <v>239</v>
+      </c>
+      <c r="L157">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>46628</v>
+      </c>
+      <c r="B158">
+        <v>233.14</v>
+      </c>
+      <c r="C158">
+        <v>239</v>
+      </c>
+      <c r="D158">
+        <v>239</v>
+      </c>
+      <c r="E158">
+        <v>990.0908542713586</v>
+      </c>
+      <c r="F158">
+        <v>31.46570918112857</v>
+      </c>
+      <c r="G158">
+        <v>182</v>
+      </c>
+      <c r="H158">
+        <v>73</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>239</v>
+      </c>
+      <c r="K158">
+        <v>239</v>
+      </c>
+      <c r="L158">
+        <v>242.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>46494</v>
+      </c>
+      <c r="B159">
+        <v>232.47</v>
+      </c>
+      <c r="C159">
+        <v>239</v>
+      </c>
+      <c r="D159">
+        <v>239</v>
+      </c>
+      <c r="E159">
+        <v>1114.089547738694</v>
+      </c>
+      <c r="F159">
+        <v>33.37797998289732</v>
+      </c>
+      <c r="G159">
+        <v>209</v>
+      </c>
+      <c r="H159">
+        <v>46</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>239</v>
+      </c>
+      <c r="K159">
+        <v>239</v>
+      </c>
+      <c r="L159">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>46435</v>
+      </c>
+      <c r="B160">
+        <v>232.175</v>
+      </c>
+      <c r="C160">
+        <v>239</v>
+      </c>
+      <c r="D160">
+        <v>239</v>
+      </c>
+      <c r="E160">
+        <v>1090.235552763819</v>
+      </c>
+      <c r="F160">
+        <v>33.01871518947731</v>
+      </c>
+      <c r="G160">
+        <v>201</v>
+      </c>
+      <c r="H160">
+        <v>54</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>239</v>
+      </c>
+      <c r="K160">
+        <v>239</v>
+      </c>
+      <c r="L160">
+        <v>239.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>46386</v>
+      </c>
+      <c r="B161">
+        <v>231.93</v>
+      </c>
+      <c r="C161">
+        <v>239</v>
+      </c>
+      <c r="D161">
+        <v>239</v>
+      </c>
+      <c r="E161">
+        <v>1041.542814070355</v>
+      </c>
+      <c r="F161">
+        <v>32.27294244518704</v>
+      </c>
+      <c r="G161">
+        <v>198</v>
+      </c>
+      <c r="H161">
+        <v>57</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>239</v>
+      </c>
+      <c r="K161">
+        <v>239</v>
+      </c>
+      <c r="L161">
+        <v>240.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>46346</v>
+      </c>
+      <c r="B162">
+        <v>231.73</v>
+      </c>
+      <c r="C162">
+        <v>239</v>
+      </c>
+      <c r="D162">
+        <v>239</v>
+      </c>
+      <c r="E162">
+        <v>1068.579999999999</v>
+      </c>
+      <c r="F162">
+        <v>32.68914192816934</v>
+      </c>
+      <c r="G162">
+        <v>194</v>
+      </c>
+      <c r="H162">
+        <v>61</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>239</v>
+      </c>
+      <c r="K162">
+        <v>239</v>
+      </c>
+      <c r="L162">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>46290</v>
+      </c>
+      <c r="B163">
+        <v>231.45</v>
+      </c>
+      <c r="C163">
+        <v>239</v>
+      </c>
+      <c r="D163">
+        <v>239</v>
+      </c>
+      <c r="E163">
+        <v>1156.721105527638</v>
+      </c>
+      <c r="F163">
+        <v>34.01060283981509</v>
+      </c>
+      <c r="G163">
+        <v>209</v>
+      </c>
+      <c r="H163">
+        <v>46</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>239</v>
+      </c>
+      <c r="K163">
+        <v>239</v>
+      </c>
+      <c r="L163">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>45657</v>
+      </c>
+      <c r="B164">
+        <v>228.285</v>
+      </c>
+      <c r="C164">
+        <v>239</v>
+      </c>
+      <c r="D164">
+        <v>239</v>
+      </c>
+      <c r="E164">
+        <v>1140.023894472366</v>
+      </c>
+      <c r="F164">
+        <v>33.76423987701138</v>
+      </c>
+      <c r="G164">
+        <v>197</v>
+      </c>
+      <c r="H164">
+        <v>58</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>239</v>
+      </c>
+      <c r="K164">
+        <v>239</v>
+      </c>
+      <c r="L164">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>45138</v>
+      </c>
+      <c r="B165">
+        <v>225.69</v>
+      </c>
+      <c r="C165">
+        <v>239</v>
+      </c>
+      <c r="D165">
+        <v>239</v>
+      </c>
+      <c r="E165">
+        <v>1136.868241206028</v>
+      </c>
+      <c r="F165">
+        <v>33.71747679180677</v>
+      </c>
+      <c r="G165">
+        <v>198</v>
+      </c>
+      <c r="H165">
+        <v>57</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>236</v>
+      </c>
+      <c r="K165">
+        <v>239</v>
+      </c>
+      <c r="L165">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>44705</v>
+      </c>
+      <c r="B166">
+        <v>223.525</v>
+      </c>
+      <c r="C166">
+        <v>239</v>
+      </c>
+      <c r="D166">
+        <v>239</v>
+      </c>
+      <c r="E166">
+        <v>1190.210427135675</v>
+      </c>
+      <c r="F166">
+        <v>34.49942647546008</v>
+      </c>
+      <c r="G166">
+        <v>188</v>
+      </c>
+      <c r="H166">
+        <v>66</v>
+      </c>
+      <c r="I166">
+        <v>254</v>
+      </c>
+      <c r="J166">
+        <v>232.75</v>
+      </c>
+      <c r="K166">
+        <v>239</v>
+      </c>
+      <c r="L166">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>44336</v>
+      </c>
+      <c r="B167">
+        <v>221.68</v>
+      </c>
+      <c r="C167">
+        <v>239</v>
+      </c>
+      <c r="D167">
+        <v>239</v>
+      </c>
+      <c r="E167">
+        <v>1503.404623115571</v>
+      </c>
+      <c r="F167">
+        <v>38.77376204491345</v>
+      </c>
+      <c r="G167">
+        <v>210</v>
+      </c>
+      <c r="H167">
+        <v>43</v>
+      </c>
+      <c r="I167">
+        <v>253</v>
+      </c>
+      <c r="J167">
+        <v>232.25</v>
+      </c>
+      <c r="K167">
+        <v>239</v>
+      </c>
+      <c r="L167">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>43886</v>
+      </c>
+      <c r="B168">
+        <v>219.43</v>
+      </c>
+      <c r="C168">
+        <v>239</v>
+      </c>
+      <c r="D168">
+        <v>239</v>
+      </c>
+      <c r="E168">
+        <v>1668.668442211049</v>
+      </c>
+      <c r="F168">
+        <v>40.84933833259786</v>
+      </c>
+      <c r="G168">
+        <v>200</v>
+      </c>
+      <c r="H168">
+        <v>51</v>
+      </c>
+      <c r="I168">
+        <v>251</v>
+      </c>
+      <c r="J168">
+        <v>229.5</v>
+      </c>
+      <c r="K168">
+        <v>239</v>
+      </c>
+      <c r="L168">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>43092</v>
+      </c>
+      <c r="B169">
+        <v>215.46</v>
+      </c>
+      <c r="C169">
+        <v>239</v>
+      </c>
+      <c r="D169">
+        <v>239</v>
+      </c>
+      <c r="E169">
+        <v>2228.973266331666</v>
+      </c>
+      <c r="F169">
+        <v>47.21200341366235</v>
+      </c>
+      <c r="G169">
+        <v>179</v>
+      </c>
+      <c r="H169">
+        <v>67</v>
+      </c>
+      <c r="I169">
+        <v>246</v>
+      </c>
+      <c r="J169">
+        <v>221</v>
+      </c>
+      <c r="K169">
+        <v>239</v>
+      </c>
+      <c r="L169">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>42557</v>
+      </c>
+      <c r="B170">
+        <v>212.785</v>
+      </c>
+      <c r="C170">
+        <v>239</v>
+      </c>
+      <c r="D170">
+        <v>239</v>
+      </c>
+      <c r="E170">
+        <v>2826.069120603011</v>
+      </c>
+      <c r="F170">
+        <v>53.16078555291496</v>
+      </c>
+      <c r="G170">
+        <v>214</v>
+      </c>
+      <c r="H170">
+        <v>28</v>
+      </c>
+      <c r="I170">
+        <v>242</v>
+      </c>
+      <c r="J170">
+        <v>208</v>
+      </c>
+      <c r="K170">
+        <v>239</v>
+      </c>
+      <c r="L170">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>43384</v>
+      </c>
+      <c r="B171">
+        <v>216.92</v>
+      </c>
+      <c r="C171">
+        <v>239</v>
+      </c>
+      <c r="D171">
+        <v>239</v>
+      </c>
+      <c r="E171">
+        <v>1829.692060301498</v>
+      </c>
+      <c r="F171">
+        <v>42.77489988651637</v>
+      </c>
+      <c r="G171">
+        <v>199</v>
+      </c>
+      <c r="H171">
+        <v>52</v>
+      </c>
+      <c r="I171">
+        <v>251</v>
+      </c>
+      <c r="J171">
+        <v>206</v>
+      </c>
+      <c r="K171">
+        <v>239</v>
+      </c>
+      <c r="L171">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>44252</v>
+      </c>
+      <c r="B172">
+        <v>221.26</v>
+      </c>
+      <c r="C172">
+        <v>239</v>
+      </c>
+      <c r="D172">
+        <v>239</v>
+      </c>
+      <c r="E172">
+        <v>1338.826532663316</v>
+      </c>
+      <c r="F172">
+        <v>36.58997858243861</v>
+      </c>
+      <c r="G172">
+        <v>175</v>
+      </c>
+      <c r="H172">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>247</v>
+      </c>
+      <c r="J172">
+        <v>227.5</v>
+      </c>
+      <c r="K172">
+        <v>239</v>
+      </c>
+      <c r="L172">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>44780</v>
+      </c>
+      <c r="B173">
+        <v>223.9</v>
+      </c>
+      <c r="C173">
+        <v>239</v>
+      </c>
+      <c r="D173">
+        <v>239</v>
+      </c>
+      <c r="E173">
+        <v>1270.633165829149</v>
+      </c>
+      <c r="F173">
+        <v>35.64594178625596</v>
+      </c>
+      <c r="G173">
+        <v>177</v>
+      </c>
+      <c r="H173">
+        <v>69</v>
+      </c>
+      <c r="I173">
+        <v>246</v>
+      </c>
+      <c r="J173">
+        <v>238</v>
+      </c>
+      <c r="K173">
+        <v>239</v>
+      </c>
+      <c r="L173">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>44977</v>
+      </c>
+      <c r="B174">
+        <v>224.885</v>
+      </c>
+      <c r="C174">
+        <v>239</v>
+      </c>
+      <c r="D174">
+        <v>239</v>
+      </c>
+      <c r="E174">
+        <v>1243.750527638192</v>
+      </c>
+      <c r="F174">
+        <v>35.26684742981987</v>
+      </c>
+      <c r="G174">
+        <v>184</v>
+      </c>
+      <c r="H174">
+        <v>68</v>
+      </c>
+      <c r="I174">
+        <v>252</v>
+      </c>
+      <c r="J174">
+        <v>238</v>
+      </c>
+      <c r="K174">
+        <v>239</v>
+      </c>
+      <c r="L174">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>44959</v>
+      </c>
+      <c r="B175">
+        <v>224.795</v>
+      </c>
+      <c r="C175">
+        <v>239</v>
+      </c>
+      <c r="D175">
+        <v>239</v>
+      </c>
+      <c r="E175">
+        <v>1411.600979899506</v>
+      </c>
+      <c r="F175">
+        <v>37.5712786567014</v>
+      </c>
+      <c r="G175">
+        <v>209</v>
+      </c>
+      <c r="H175">
+        <v>33</v>
+      </c>
+      <c r="I175">
+        <v>242</v>
+      </c>
+      <c r="J175">
+        <v>238</v>
+      </c>
+      <c r="K175">
+        <v>239</v>
+      </c>
+      <c r="L175">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>45000</v>
+      </c>
+      <c r="B176">
+        <v>225</v>
+      </c>
+      <c r="C176">
+        <v>239</v>
+      </c>
+      <c r="D176">
+        <v>239</v>
+      </c>
+      <c r="E176">
+        <v>1410.170854271357</v>
+      </c>
+      <c r="F176">
+        <v>37.5522416677268</v>
+      </c>
+      <c r="G176">
+        <v>184</v>
+      </c>
+      <c r="H176">
+        <v>58</v>
+      </c>
+      <c r="I176">
+        <v>242</v>
+      </c>
+      <c r="J176">
+        <v>239</v>
+      </c>
+      <c r="K176">
+        <v>239</v>
+      </c>
+      <c r="L176">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>44944</v>
+      </c>
+      <c r="B177">
+        <v>224.72</v>
+      </c>
+      <c r="C177">
+        <v>239</v>
+      </c>
+      <c r="D177">
+        <v>239</v>
+      </c>
+      <c r="E177">
+        <v>1633.468944723629</v>
+      </c>
+      <c r="F177">
+        <v>40.41619656429373</v>
+      </c>
+      <c r="G177">
+        <v>200</v>
+      </c>
+      <c r="H177">
+        <v>48</v>
+      </c>
+      <c r="I177">
+        <v>248</v>
+      </c>
+      <c r="J177">
+        <v>239</v>
+      </c>
+      <c r="K177">
+        <v>239</v>
+      </c>
+      <c r="L177">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>44773</v>
+      </c>
+      <c r="B178">
+        <v>223.865</v>
+      </c>
+      <c r="C178">
+        <v>239</v>
+      </c>
+      <c r="D178">
+        <v>239</v>
+      </c>
+      <c r="E178">
+        <v>1983.584698492461</v>
+      </c>
+      <c r="F178">
+        <v>44.53745276160796</v>
+      </c>
+      <c r="G178">
+        <v>215</v>
+      </c>
+      <c r="H178">
+        <v>36</v>
+      </c>
+      <c r="I178">
+        <v>251</v>
+      </c>
+      <c r="J178">
+        <v>239</v>
+      </c>
+      <c r="K178">
+        <v>239</v>
+      </c>
+      <c r="L178">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>44488</v>
+      </c>
+      <c r="B179">
+        <v>222.44</v>
+      </c>
+      <c r="C179">
+        <v>239</v>
+      </c>
+      <c r="D179">
+        <v>239</v>
+      </c>
+      <c r="E179">
+        <v>2497.433567839187</v>
+      </c>
+      <c r="F179">
+        <v>49.97432908843486</v>
+      </c>
+      <c r="G179">
+        <v>206</v>
+      </c>
+      <c r="H179">
+        <v>35</v>
+      </c>
+      <c r="I179">
+        <v>241</v>
+      </c>
+      <c r="J179">
+        <v>239</v>
+      </c>
+      <c r="K179">
+        <v>239</v>
+      </c>
+      <c r="L179">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>45158</v>
+      </c>
+      <c r="B180">
+        <v>225.79</v>
+      </c>
+      <c r="C180">
+        <v>239</v>
+      </c>
+      <c r="D180">
+        <v>239</v>
+      </c>
+      <c r="E180">
+        <v>1963.021005025134</v>
+      </c>
+      <c r="F180">
+        <v>44.30599287935137</v>
+      </c>
+      <c r="G180">
+        <v>216</v>
+      </c>
+      <c r="H180">
+        <v>26</v>
+      </c>
+      <c r="I180">
+        <v>242</v>
+      </c>
+      <c r="J180">
+        <v>239</v>
+      </c>
+      <c r="K180">
+        <v>239</v>
+      </c>
+      <c r="L180">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>46357</v>
+      </c>
+      <c r="B181">
+        <v>231.785</v>
+      </c>
+      <c r="C181">
+        <v>239</v>
+      </c>
+      <c r="D181">
+        <v>239</v>
+      </c>
+      <c r="E181">
+        <v>816.9032914572897</v>
+      </c>
+      <c r="F181">
+        <v>28.58152010403382</v>
+      </c>
+      <c r="G181">
+        <v>172</v>
+      </c>
+      <c r="H181">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>251</v>
+      </c>
+      <c r="J181">
+        <v>239</v>
+      </c>
+      <c r="K181">
+        <v>239</v>
+      </c>
+      <c r="L181">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>47780</v>
+      </c>
+      <c r="B182">
+        <v>238.9</v>
+      </c>
+      <c r="C182">
+        <v>239</v>
+      </c>
+      <c r="D182">
+        <v>239</v>
+      </c>
+      <c r="E182">
+        <v>14.27135678391969</v>
+      </c>
+      <c r="F182">
+        <v>3.777744933676662</v>
+      </c>
+      <c r="G182">
+        <v>40</v>
+      </c>
+      <c r="H182">
+        <v>214</v>
+      </c>
+      <c r="I182">
+        <v>254</v>
+      </c>
+      <c r="J182">
+        <v>239</v>
+      </c>
+      <c r="K182">
+        <v>239</v>
+      </c>
+      <c r="L182">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>47857</v>
+      </c>
+      <c r="B183">
+        <v>239.285</v>
+      </c>
+      <c r="C183">
+        <v>239</v>
+      </c>
+      <c r="D183">
+        <v>239</v>
+      </c>
+      <c r="E183">
+        <v>6.536457286432121</v>
+      </c>
+      <c r="F183">
+        <v>2.556649621366236</v>
+      </c>
+      <c r="G183">
+        <v>25</v>
+      </c>
+      <c r="H183">
+        <v>226</v>
+      </c>
+      <c r="I183">
+        <v>251</v>
+      </c>
+      <c r="J183">
+        <v>239</v>
+      </c>
+      <c r="K183">
+        <v>239</v>
+      </c>
+      <c r="L183">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>47800</v>
+      </c>
+      <c r="B184">
+        <v>239</v>
+      </c>
+      <c r="C184">
+        <v>239</v>
+      </c>
+      <c r="D184">
+        <v>239</v>
+      </c>
+      <c r="E184">
+        <v>2.351758793969849</v>
+      </c>
+      <c r="F184">
+        <v>1.533544519722153</v>
+      </c>
+      <c r="G184">
+        <v>17</v>
+      </c>
+      <c r="H184">
+        <v>232</v>
+      </c>
+      <c r="I184">
+        <v>249</v>
+      </c>
+      <c r="J184">
+        <v>239</v>
+      </c>
+      <c r="K184">
+        <v>239</v>
+      </c>
+      <c r="L184">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>47757</v>
+      </c>
+      <c r="B185">
+        <v>238.785</v>
+      </c>
+      <c r="C185">
+        <v>239</v>
+      </c>
+      <c r="D185">
+        <v>239</v>
+      </c>
+      <c r="E185">
+        <v>4.028919597989971</v>
+      </c>
+      <c r="F185">
+        <v>2.007216878663083</v>
+      </c>
+      <c r="G185">
+        <v>16</v>
+      </c>
+      <c r="H185">
+        <v>230</v>
+      </c>
+      <c r="I185">
+        <v>246</v>
+      </c>
+      <c r="J185">
+        <v>239</v>
+      </c>
+      <c r="K185">
+        <v>239</v>
+      </c>
+      <c r="L185">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>47800</v>
+      </c>
+      <c r="B186">
+        <v>239</v>
+      </c>
+      <c r="C186">
+        <v>239</v>
+      </c>
+      <c r="D186">
+        <v>239</v>
+      </c>
+      <c r="E186">
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F186">
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G186">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>239</v>
-      </c>
-      <c r="I101">
-        <v>239</v>
-      </c>
-      <c r="J101">
-        <v>239</v>
-      </c>
-      <c r="K101">
-        <v>239</v>
-      </c>
-      <c r="L101">
+      <c r="H186">
+        <v>239</v>
+      </c>
+      <c r="I186">
+        <v>239</v>
+      </c>
+      <c r="J186">
+        <v>239</v>
+      </c>
+      <c r="K186">
+        <v>239</v>
+      </c>
+      <c r="L186">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>47800</v>
+      </c>
+      <c r="B187">
+        <v>239</v>
+      </c>
+      <c r="C187">
+        <v>239</v>
+      </c>
+      <c r="D187">
+        <v>239</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>239</v>
+      </c>
+      <c r="I187">
+        <v>239</v>
+      </c>
+      <c r="J187">
+        <v>239</v>
+      </c>
+      <c r="K187">
+        <v>239</v>
+      </c>
+      <c r="L187">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>47800</v>
+      </c>
+      <c r="B188">
+        <v>239</v>
+      </c>
+      <c r="C188">
+        <v>239</v>
+      </c>
+      <c r="D188">
+        <v>239</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>239</v>
+      </c>
+      <c r="I188">
+        <v>239</v>
+      </c>
+      <c r="J188">
+        <v>239</v>
+      </c>
+      <c r="K188">
+        <v>239</v>
+      </c>
+      <c r="L188">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>47800</v>
+      </c>
+      <c r="B189">
+        <v>239</v>
+      </c>
+      <c r="C189">
+        <v>239</v>
+      </c>
+      <c r="D189">
+        <v>239</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>239</v>
+      </c>
+      <c r="I189">
+        <v>239</v>
+      </c>
+      <c r="J189">
+        <v>239</v>
+      </c>
+      <c r="K189">
+        <v>239</v>
+      </c>
+      <c r="L189">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>47800</v>
+      </c>
+      <c r="B190">
+        <v>239</v>
+      </c>
+      <c r="C190">
+        <v>239</v>
+      </c>
+      <c r="D190">
+        <v>239</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>239</v>
+      </c>
+      <c r="I190">
+        <v>239</v>
+      </c>
+      <c r="J190">
+        <v>239</v>
+      </c>
+      <c r="K190">
+        <v>239</v>
+      </c>
+      <c r="L190">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>47800</v>
+      </c>
+      <c r="B191">
+        <v>239</v>
+      </c>
+      <c r="C191">
+        <v>239</v>
+      </c>
+      <c r="D191">
+        <v>239</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>239</v>
+      </c>
+      <c r="I191">
+        <v>239</v>
+      </c>
+      <c r="J191">
+        <v>239</v>
+      </c>
+      <c r="K191">
+        <v>239</v>
+      </c>
+      <c r="L191">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>47800</v>
+      </c>
+      <c r="B192">
+        <v>239</v>
+      </c>
+      <c r="C192">
+        <v>239</v>
+      </c>
+      <c r="D192">
+        <v>239</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>239</v>
+      </c>
+      <c r="I192">
+        <v>239</v>
+      </c>
+      <c r="J192">
+        <v>239</v>
+      </c>
+      <c r="K192">
+        <v>239</v>
+      </c>
+      <c r="L192">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>47800</v>
+      </c>
+      <c r="B193">
+        <v>239</v>
+      </c>
+      <c r="C193">
+        <v>239</v>
+      </c>
+      <c r="D193">
+        <v>239</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>239</v>
+      </c>
+      <c r="I193">
+        <v>239</v>
+      </c>
+      <c r="J193">
+        <v>239</v>
+      </c>
+      <c r="K193">
+        <v>239</v>
+      </c>
+      <c r="L193">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>47800</v>
+      </c>
+      <c r="B194">
+        <v>239</v>
+      </c>
+      <c r="C194">
+        <v>239</v>
+      </c>
+      <c r="D194">
+        <v>239</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>239</v>
+      </c>
+      <c r="I194">
+        <v>239</v>
+      </c>
+      <c r="J194">
+        <v>239</v>
+      </c>
+      <c r="K194">
+        <v>239</v>
+      </c>
+      <c r="L194">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>47800</v>
+      </c>
+      <c r="B195">
+        <v>239</v>
+      </c>
+      <c r="C195">
+        <v>239</v>
+      </c>
+      <c r="D195">
+        <v>239</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>239</v>
+      </c>
+      <c r="I195">
+        <v>239</v>
+      </c>
+      <c r="J195">
+        <v>239</v>
+      </c>
+      <c r="K195">
+        <v>239</v>
+      </c>
+      <c r="L195">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>47800</v>
+      </c>
+      <c r="B196">
+        <v>239</v>
+      </c>
+      <c r="C196">
+        <v>239</v>
+      </c>
+      <c r="D196">
+        <v>239</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>239</v>
+      </c>
+      <c r="I196">
+        <v>239</v>
+      </c>
+      <c r="J196">
+        <v>239</v>
+      </c>
+      <c r="K196">
+        <v>239</v>
+      </c>
+      <c r="L196">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>47800</v>
+      </c>
+      <c r="B197">
+        <v>239</v>
+      </c>
+      <c r="C197">
+        <v>239</v>
+      </c>
+      <c r="D197">
+        <v>239</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>239</v>
+      </c>
+      <c r="I197">
+        <v>239</v>
+      </c>
+      <c r="J197">
+        <v>239</v>
+      </c>
+      <c r="K197">
+        <v>239</v>
+      </c>
+      <c r="L197">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>47800</v>
+      </c>
+      <c r="B198">
+        <v>239</v>
+      </c>
+      <c r="C198">
+        <v>239</v>
+      </c>
+      <c r="D198">
+        <v>239</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>239</v>
+      </c>
+      <c r="I198">
+        <v>239</v>
+      </c>
+      <c r="J198">
+        <v>239</v>
+      </c>
+      <c r="K198">
+        <v>239</v>
+      </c>
+      <c r="L198">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>47800</v>
+      </c>
+      <c r="B199">
+        <v>239</v>
+      </c>
+      <c r="C199">
+        <v>239</v>
+      </c>
+      <c r="D199">
+        <v>239</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>239</v>
+      </c>
+      <c r="I199">
+        <v>239</v>
+      </c>
+      <c r="J199">
+        <v>239</v>
+      </c>
+      <c r="K199">
+        <v>239</v>
+      </c>
+      <c r="L199">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>47800</v>
+      </c>
+      <c r="B200">
+        <v>239</v>
+      </c>
+      <c r="C200">
+        <v>239</v>
+      </c>
+      <c r="D200">
+        <v>239</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>239</v>
+      </c>
+      <c r="I200">
+        <v>239</v>
+      </c>
+      <c r="J200">
+        <v>239</v>
+      </c>
+      <c r="K200">
+        <v>239</v>
+      </c>
+      <c r="L200">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>47800</v>
+      </c>
+      <c r="B201">
+        <v>239</v>
+      </c>
+      <c r="C201">
+        <v>239</v>
+      </c>
+      <c r="D201">
+        <v>239</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>239</v>
+      </c>
+      <c r="I201">
+        <v>239</v>
+      </c>
+      <c r="J201">
+        <v>239</v>
+      </c>
+      <c r="K201">
+        <v>239</v>
+      </c>
+      <c r="L201">
         <v>239</v>
       </c>
     </row>
